--- a/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.61510003204404</v>
+        <v>2.615100032044325</v>
       </c>
       <c r="C2">
-        <v>0.9217080699630174</v>
+        <v>0.92170806996279</v>
       </c>
       <c r="D2">
-        <v>0.01471600520733674</v>
+        <v>0.01471600520745397</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.568111064293333</v>
+        <v>2.568111064293362</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.374329996631744</v>
+        <v>1.37432999663173</v>
       </c>
       <c r="I2">
-        <v>0.05078819467317608</v>
+        <v>0.05078819467315299</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0.1774193882369772</v>
       </c>
       <c r="L2">
-        <v>0.7178250847572869</v>
+        <v>0.7178250847572656</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.252799108804766</v>
+        <v>2.252799108804879</v>
       </c>
       <c r="C3">
-        <v>0.7927070856248406</v>
+        <v>0.7927070856247553</v>
       </c>
       <c r="D3">
-        <v>0.0141752422564636</v>
+        <v>0.01417524225624334</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.288907575669725</v>
+        <v>2.288907575669711</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.249005274203569</v>
+        <v>1.249005274203597</v>
       </c>
       <c r="I3">
-        <v>0.04775470862306186</v>
+        <v>0.04775470862306541</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1546319221655281</v>
+        <v>0.154631922165521</v>
       </c>
       <c r="L3">
-        <v>0.6192494744624213</v>
+        <v>0.6192494744624426</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.033679276276303</v>
+        <v>2.033679276276246</v>
       </c>
       <c r="C4">
-        <v>0.71483997310429</v>
+        <v>0.7148399731040911</v>
       </c>
       <c r="D4">
-        <v>0.01389361420772417</v>
+        <v>0.01389361420762825</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>1.175151544903599</v>
       </c>
       <c r="I4">
-        <v>0.04599134662613658</v>
+        <v>0.045991346626165</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0.1409729380966276</v>
       </c>
       <c r="L4">
-        <v>0.5598271389303662</v>
+        <v>0.559827138930352</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.945092371543296</v>
+        <v>1.945092371543154</v>
       </c>
       <c r="C5">
-        <v>0.6833902267354972</v>
+        <v>0.6833902267353551</v>
       </c>
       <c r="D5">
-        <v>0.01379000446865675</v>
+        <v>0.01379000446868517</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.056900996765165</v>
+        <v>2.056900996765179</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.145750246338622</v>
+        <v>1.145750246338636</v>
       </c>
       <c r="I5">
-        <v>0.04529537219780622</v>
+        <v>0.04529537219780444</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1354799394013639</v>
+        <v>0.1354799394013568</v>
       </c>
       <c r="L5">
-        <v>0.5358501497651176</v>
+        <v>0.5358501497651318</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.930421605967268</v>
+        <v>1.93042160596741</v>
       </c>
       <c r="C6">
-        <v>0.6781835219596815</v>
+        <v>0.6781835219593972</v>
       </c>
       <c r="D6">
-        <v>0.0137734325518224</v>
+        <v>0.01377343255170516</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.045968969694059</v>
+        <v>2.04596896969403</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.140907831634607</v>
+        <v>1.140907831634635</v>
       </c>
       <c r="I6">
-        <v>0.04518110726658442</v>
+        <v>0.04518110726657909</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1345719604141884</v>
+        <v>0.1345719604141955</v>
       </c>
       <c r="L6">
-        <v>0.5318820868520078</v>
+        <v>0.5318820868520007</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.032481868635557</v>
+        <v>2.032481868635614</v>
       </c>
       <c r="C7">
-        <v>0.7144147592362344</v>
+        <v>0.714414759236206</v>
       </c>
       <c r="D7">
-        <v>0.01389217361134953</v>
+        <v>0.01389217361147033</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>1.174752321265387</v>
       </c>
       <c r="I7">
-        <v>0.04598187186601876</v>
+        <v>0.0459818718660312</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.140898574594118</v>
+        <v>0.1408985745941145</v>
       </c>
       <c r="L7">
-        <v>0.55950286223608</v>
+        <v>0.5595028622360871</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.489402862308623</v>
+        <v>2.489402862308566</v>
       </c>
       <c r="C8">
-        <v>0.8769154135476924</v>
+        <v>0.8769154135481756</v>
       </c>
       <c r="D8">
-        <v>0.01451812316100032</v>
+        <v>0.01451812316122769</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.330422464797877</v>
+        <v>1.330422464797891</v>
       </c>
       <c r="I8">
-        <v>0.04972018353931951</v>
+        <v>0.04972018353933549</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1694866074321624</v>
+        <v>0.1694866074321588</v>
       </c>
       <c r="L8">
         <v>0.6835822667695837</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.418620437424579</v>
+        <v>3.418620437424693</v>
       </c>
       <c r="C9">
-        <v>1.209029649532283</v>
+        <v>1.209029649532567</v>
       </c>
       <c r="D9">
-        <v>0.01622367389960289</v>
+        <v>0.01622367389950341</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.664498916691301</v>
+        <v>1.664498916691272</v>
       </c>
       <c r="I9">
-        <v>0.05795593809361854</v>
+        <v>0.05795593809362032</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0.228718287867153</v>
       </c>
       <c r="L9">
-        <v>0.9376592788987637</v>
+        <v>0.9376592788987708</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.132330534767448</v>
+        <v>4.132330534767505</v>
       </c>
       <c r="C10">
-        <v>1.465753223009358</v>
+        <v>1.465753223009642</v>
       </c>
       <c r="D10">
-        <v>0.01789513676142462</v>
+        <v>0.01789513676154542</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.79389281818996</v>
+        <v>3.793892818189988</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.934245095503073</v>
+        <v>1.934245095503101</v>
       </c>
       <c r="I10">
-        <v>0.06474458944139272</v>
+        <v>0.06474458944136785</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.275013641834768</v>
+        <v>0.2750136418347964</v>
       </c>
       <c r="L10">
-        <v>1.134080467676924</v>
+        <v>1.134080467676938</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.466613763587247</v>
+        <v>4.466613763587361</v>
       </c>
       <c r="C11">
-        <v>1.586512920469147</v>
+        <v>1.58651292046909</v>
       </c>
       <c r="D11">
-        <v>0.01878111979945629</v>
+        <v>0.01878111979912234</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.064019761600818</v>
+        <v>2.06401976160079</v>
       </c>
       <c r="I11">
         <v>0.06804209860326438</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2969009875949737</v>
+        <v>0.2969009875949524</v>
       </c>
       <c r="L11">
-        <v>1.226400951558659</v>
+        <v>1.226400951558617</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.594863604035083</v>
+        <v>4.59486360403497</v>
       </c>
       <c r="C12">
-        <v>1.632933214182799</v>
+        <v>1.632933214182515</v>
       </c>
       <c r="D12">
-        <v>0.01913822808917232</v>
+        <v>0.01913822808952403</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.114354533550298</v>
+        <v>2.114354533550312</v>
       </c>
       <c r="I12">
-        <v>0.06932569535632993</v>
+        <v>0.06932569535631572</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3053301196062463</v>
+        <v>0.305330119606225</v>
       </c>
       <c r="L12">
-        <v>1.261870556379463</v>
+        <v>1.261870556379506</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.567163729501885</v>
+        <v>4.56716372950217</v>
       </c>
       <c r="C13">
-        <v>1.622902915352427</v>
+        <v>1.622902915352597</v>
       </c>
       <c r="D13">
-        <v>0.01906029419956923</v>
+        <v>0.01906029419970423</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.159307664989996</v>
+        <v>4.159307664990024</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.103457929804989</v>
+        <v>2.103457929805003</v>
       </c>
       <c r="I13">
-        <v>0.06904761323223241</v>
+        <v>0.06904761323222175</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3035081048068804</v>
+        <v>0.3035081048068875</v>
       </c>
       <c r="L13">
-        <v>1.254207402817187</v>
+        <v>1.254207402817173</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -874,31 +874,31 @@
         <v>1.590317337922215</v>
       </c>
       <c r="D14">
-        <v>0.01881004373068507</v>
+        <v>0.01881004373046835</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.083185254482913</v>
+        <v>4.083185254482885</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.068135839575945</v>
+        <v>2.068135839575959</v>
       </c>
       <c r="I14">
-        <v>0.06814697128977798</v>
+        <v>0.06814697128978509</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2975914966191482</v>
+        <v>0.2975914966191695</v>
       </c>
       <c r="L14">
-        <v>1.229308316681966</v>
+        <v>1.229308316681994</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.422207296359886</v>
+        <v>4.422207296359943</v>
       </c>
       <c r="C15">
-        <v>1.5704516298577</v>
+        <v>1.570451629857189</v>
       </c>
       <c r="D15">
-        <v>0.01865968775613425</v>
+        <v>0.01865968775686255</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.036865840925003</v>
+        <v>4.036865840924975</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.046660951709939</v>
+        <v>2.04666095170991</v>
       </c>
       <c r="I15">
-        <v>0.0676000022143981</v>
+        <v>0.06760000221433771</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2939864559160981</v>
+        <v>0.2939864559161194</v>
       </c>
       <c r="L15">
         <v>1.214125991898797</v>
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.110700873454277</v>
+        <v>4.110700873454391</v>
       </c>
       <c r="C16">
-        <v>1.457951074287223</v>
+        <v>1.457951074287053</v>
       </c>
       <c r="D16">
-        <v>0.01784005222426188</v>
+        <v>0.01784005222397766</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.775865728532409</v>
+        <v>3.775865728532352</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.925920622922007</v>
+        <v>1.925920622921993</v>
       </c>
       <c r="I16">
-        <v>0.06453369588024316</v>
+        <v>0.06453369588022539</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.273601698018318</v>
+        <v>0.2736016980182967</v>
       </c>
       <c r="L16">
-        <v>1.128113638773392</v>
+        <v>1.128113638773385</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,7 +988,7 @@
         <v>1.390032988325515</v>
       </c>
       <c r="D17">
-        <v>0.01737173752119148</v>
+        <v>0.01737173752096055</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.853776950584958</v>
+        <v>1.853776950584944</v>
       </c>
       <c r="I17">
-        <v>0.06270942633577903</v>
+        <v>0.06270942633580567</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.261322783925948</v>
+        <v>0.2613227839259125</v>
       </c>
       <c r="L17">
-        <v>1.076163144400404</v>
+        <v>1.07616314440039</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.814745185455308</v>
+        <v>3.814745185455365</v>
       </c>
       <c r="C18">
         <v>1.351334248466344</v>
       </c>
       <c r="D18">
-        <v>0.01711395467855326</v>
+        <v>0.01711395467844667</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>1.812934903222512</v>
       </c>
       <c r="I18">
-        <v>0.06167953078573696</v>
+        <v>0.06167953078571742</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0.2543366628409842</v>
       </c>
       <c r="L18">
-        <v>1.046556247286162</v>
+        <v>1.046556247286169</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>3.778489782807355</v>
       </c>
       <c r="C19">
-        <v>1.33829102918304</v>
+        <v>1.338291029182983</v>
       </c>
       <c r="D19">
-        <v>0.01702856461455582</v>
+        <v>0.01702856461417568</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.500842011191622</v>
+        <v>3.500842011191651</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>1.799213725690052</v>
       </c>
       <c r="I19">
-        <v>0.06133401871829669</v>
+        <v>0.06133401871829136</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2519837869707544</v>
+        <v>0.2519837869707402</v>
       </c>
       <c r="L19">
-        <v>1.036576530551173</v>
+        <v>1.036576530551166</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,31 +1099,31 @@
         <v>3.942218234434847</v>
       </c>
       <c r="C20">
-        <v>1.397224303956023</v>
+        <v>1.397224303955966</v>
       </c>
       <c r="D20">
-        <v>0.01742036831865335</v>
+        <v>0.01742036831842242</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.635945962774599</v>
+        <v>3.635945962774542</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.861387987086502</v>
+        <v>1.861387987086488</v>
       </c>
       <c r="I20">
-        <v>0.06290158506269883</v>
+        <v>0.06290158506270593</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2626218415117947</v>
+        <v>0.2626218415118018</v>
       </c>
       <c r="L20">
         <v>1.081664479242392</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.503527341129598</v>
+        <v>4.503527341129484</v>
       </c>
       <c r="C21">
-        <v>1.599868701736682</v>
+        <v>1.599868701736966</v>
       </c>
       <c r="D21">
-        <v>0.01888293057439583</v>
+        <v>0.01888293057441714</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.105479422276375</v>
+        <v>4.105479422276346</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>2.078476905969083</v>
       </c>
       <c r="I21">
-        <v>0.06841052253781754</v>
+        <v>0.06841052253786017</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2993253333511205</v>
+        <v>0.2993253333510992</v>
       </c>
       <c r="L21">
-        <v>1.236607217582716</v>
+        <v>1.236607217582701</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.880239349227168</v>
+        <v>4.880239349227338</v>
       </c>
       <c r="C22">
-        <v>1.736407896179514</v>
+        <v>1.736407896179742</v>
       </c>
       <c r="D22">
-        <v>0.01996686915676094</v>
+        <v>0.01996686915653356</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.4258240369129</v>
+        <v>4.425824036912957</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>2.227407191964531</v>
       </c>
       <c r="I22">
-        <v>0.07221714854577499</v>
+        <v>0.07221714854577144</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.678173278703696</v>
+        <v>4.678173278703525</v>
       </c>
       <c r="C23">
-        <v>1.663114425298488</v>
+        <v>1.663114425298147</v>
       </c>
       <c r="D23">
-        <v>0.01937528752381468</v>
+        <v>0.01937528752366546</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.147209585222626</v>
+        <v>2.147209585222612</v>
       </c>
       <c r="I23">
-        <v>0.07016482707223659</v>
+        <v>0.07016482707223304</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.933188453969649</v>
+        <v>3.933188453969706</v>
       </c>
       <c r="C24">
-        <v>1.393972034138073</v>
+        <v>1.393972034138528</v>
       </c>
       <c r="D24">
         <v>0.01739834690614828</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.857945074673282</v>
+        <v>1.85794507467331</v>
       </c>
       <c r="I24">
-        <v>0.06281465158178001</v>
+        <v>0.06281465158174981</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.262034311214336</v>
+        <v>0.2620343112143502</v>
       </c>
       <c r="L24">
         <v>1.079176521604218</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.162661755794602</v>
+        <v>3.162661755794659</v>
       </c>
       <c r="C25">
         <v>1.117314298738506</v>
       </c>
       <c r="D25">
-        <v>0.01569914546221796</v>
+        <v>0.01569914546236006</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.000805062254614</v>
+        <v>3.000805062254585</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.570395207426571</v>
+        <v>1.570395207426557</v>
       </c>
       <c r="I25">
-        <v>0.05561325577576604</v>
+        <v>0.05561325577574294</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.212274413969034</v>
+        <v>0.2122744139690127</v>
       </c>
       <c r="L25">
         <v>0.8674685051264746</v>

--- a/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.615100032044325</v>
+        <v>2.61510003204404</v>
       </c>
       <c r="C2">
-        <v>0.92170806996279</v>
+        <v>0.9217080699630174</v>
       </c>
       <c r="D2">
-        <v>0.01471600520745397</v>
+        <v>0.01471600520733674</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.568111064293362</v>
+        <v>2.568111064293333</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.37432999663173</v>
+        <v>1.374329996631744</v>
       </c>
       <c r="I2">
-        <v>0.05078819467315299</v>
+        <v>0.05078819467317608</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0.1774193882369772</v>
       </c>
       <c r="L2">
-        <v>0.7178250847572656</v>
+        <v>0.7178250847572869</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.252799108804879</v>
+        <v>2.252799108804766</v>
       </c>
       <c r="C3">
-        <v>0.7927070856247553</v>
+        <v>0.7927070856248406</v>
       </c>
       <c r="D3">
-        <v>0.01417524225624334</v>
+        <v>0.0141752422564636</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.288907575669711</v>
+        <v>2.288907575669725</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.249005274203597</v>
+        <v>1.249005274203569</v>
       </c>
       <c r="I3">
-        <v>0.04775470862306541</v>
+        <v>0.04775470862306186</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.154631922165521</v>
+        <v>0.1546319221655281</v>
       </c>
       <c r="L3">
-        <v>0.6192494744624426</v>
+        <v>0.6192494744624213</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.033679276276246</v>
+        <v>2.033679276276303</v>
       </c>
       <c r="C4">
-        <v>0.7148399731040911</v>
+        <v>0.71483997310429</v>
       </c>
       <c r="D4">
-        <v>0.01389361420762825</v>
+        <v>0.01389361420772417</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>1.175151544903599</v>
       </c>
       <c r="I4">
-        <v>0.045991346626165</v>
+        <v>0.04599134662613658</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0.1409729380966276</v>
       </c>
       <c r="L4">
-        <v>0.559827138930352</v>
+        <v>0.5598271389303662</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.945092371543154</v>
+        <v>1.945092371543296</v>
       </c>
       <c r="C5">
-        <v>0.6833902267353551</v>
+        <v>0.6833902267354972</v>
       </c>
       <c r="D5">
-        <v>0.01379000446868517</v>
+        <v>0.01379000446865675</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.056900996765179</v>
+        <v>2.056900996765165</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.145750246338636</v>
+        <v>1.145750246338622</v>
       </c>
       <c r="I5">
-        <v>0.04529537219780444</v>
+        <v>0.04529537219780622</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1354799394013568</v>
+        <v>0.1354799394013639</v>
       </c>
       <c r="L5">
-        <v>0.5358501497651318</v>
+        <v>0.5358501497651176</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.93042160596741</v>
+        <v>1.930421605967268</v>
       </c>
       <c r="C6">
-        <v>0.6781835219593972</v>
+        <v>0.6781835219596815</v>
       </c>
       <c r="D6">
-        <v>0.01377343255170516</v>
+        <v>0.0137734325518224</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.04596896969403</v>
+        <v>2.045968969694059</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.140907831634635</v>
+        <v>1.140907831634607</v>
       </c>
       <c r="I6">
-        <v>0.04518110726657909</v>
+        <v>0.04518110726658442</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1345719604141955</v>
+        <v>0.1345719604141884</v>
       </c>
       <c r="L6">
-        <v>0.5318820868520007</v>
+        <v>0.5318820868520078</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.032481868635614</v>
+        <v>2.032481868635557</v>
       </c>
       <c r="C7">
-        <v>0.714414759236206</v>
+        <v>0.7144147592362344</v>
       </c>
       <c r="D7">
-        <v>0.01389217361147033</v>
+        <v>0.01389217361134953</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>1.174752321265387</v>
       </c>
       <c r="I7">
-        <v>0.0459818718660312</v>
+        <v>0.04598187186601876</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1408985745941145</v>
+        <v>0.140898574594118</v>
       </c>
       <c r="L7">
-        <v>0.5595028622360871</v>
+        <v>0.55950286223608</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.489402862308566</v>
+        <v>2.489402862308623</v>
       </c>
       <c r="C8">
-        <v>0.8769154135481756</v>
+        <v>0.8769154135476924</v>
       </c>
       <c r="D8">
-        <v>0.01451812316122769</v>
+        <v>0.01451812316100032</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,16 +658,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.330422464797891</v>
+        <v>1.330422464797877</v>
       </c>
       <c r="I8">
-        <v>0.04972018353933549</v>
+        <v>0.04972018353931951</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1694866074321588</v>
+        <v>0.1694866074321624</v>
       </c>
       <c r="L8">
         <v>0.6835822667695837</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.418620437424693</v>
+        <v>3.418620437424579</v>
       </c>
       <c r="C9">
-        <v>1.209029649532567</v>
+        <v>1.209029649532283</v>
       </c>
       <c r="D9">
-        <v>0.01622367389950341</v>
+        <v>0.01622367389960289</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.664498916691272</v>
+        <v>1.664498916691301</v>
       </c>
       <c r="I9">
-        <v>0.05795593809362032</v>
+        <v>0.05795593809361854</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0.228718287867153</v>
       </c>
       <c r="L9">
-        <v>0.9376592788987708</v>
+        <v>0.9376592788987637</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.132330534767505</v>
+        <v>4.132330534767448</v>
       </c>
       <c r="C10">
-        <v>1.465753223009642</v>
+        <v>1.465753223009358</v>
       </c>
       <c r="D10">
-        <v>0.01789513676154542</v>
+        <v>0.01789513676142462</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.793892818189988</v>
+        <v>3.79389281818996</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.934245095503101</v>
+        <v>1.934245095503073</v>
       </c>
       <c r="I10">
-        <v>0.06474458944136785</v>
+        <v>0.06474458944139272</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2750136418347964</v>
+        <v>0.275013641834768</v>
       </c>
       <c r="L10">
-        <v>1.134080467676938</v>
+        <v>1.134080467676924</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.466613763587361</v>
+        <v>4.466613763587247</v>
       </c>
       <c r="C11">
-        <v>1.58651292046909</v>
+        <v>1.586512920469147</v>
       </c>
       <c r="D11">
-        <v>0.01878111979912234</v>
+        <v>0.01878111979945629</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.06401976160079</v>
+        <v>2.064019761600818</v>
       </c>
       <c r="I11">
         <v>0.06804209860326438</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2969009875949524</v>
+        <v>0.2969009875949737</v>
       </c>
       <c r="L11">
-        <v>1.226400951558617</v>
+        <v>1.226400951558659</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.59486360403497</v>
+        <v>4.594863604035083</v>
       </c>
       <c r="C12">
-        <v>1.632933214182515</v>
+        <v>1.632933214182799</v>
       </c>
       <c r="D12">
-        <v>0.01913822808952403</v>
+        <v>0.01913822808917232</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.114354533550312</v>
+        <v>2.114354533550298</v>
       </c>
       <c r="I12">
-        <v>0.06932569535631572</v>
+        <v>0.06932569535632993</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.305330119606225</v>
+        <v>0.3053301196062463</v>
       </c>
       <c r="L12">
-        <v>1.261870556379506</v>
+        <v>1.261870556379463</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.56716372950217</v>
+        <v>4.567163729501885</v>
       </c>
       <c r="C13">
-        <v>1.622902915352597</v>
+        <v>1.622902915352427</v>
       </c>
       <c r="D13">
-        <v>0.01906029419970423</v>
+        <v>0.01906029419956923</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.159307664990024</v>
+        <v>4.159307664989996</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2.103457929805003</v>
+        <v>2.103457929804989</v>
       </c>
       <c r="I13">
-        <v>0.06904761323222175</v>
+        <v>0.06904761323223241</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3035081048068875</v>
+        <v>0.3035081048068804</v>
       </c>
       <c r="L13">
-        <v>1.254207402817173</v>
+        <v>1.254207402817187</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -874,31 +874,31 @@
         <v>1.590317337922215</v>
       </c>
       <c r="D14">
-        <v>0.01881004373046835</v>
+        <v>0.01881004373068507</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.083185254482885</v>
+        <v>4.083185254482913</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2.068135839575959</v>
+        <v>2.068135839575945</v>
       </c>
       <c r="I14">
-        <v>0.06814697128978509</v>
+        <v>0.06814697128977798</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2975914966191695</v>
+        <v>0.2975914966191482</v>
       </c>
       <c r="L14">
-        <v>1.229308316681994</v>
+        <v>1.229308316681966</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.422207296359943</v>
+        <v>4.422207296359886</v>
       </c>
       <c r="C15">
-        <v>1.570451629857189</v>
+        <v>1.5704516298577</v>
       </c>
       <c r="D15">
-        <v>0.01865968775686255</v>
+        <v>0.01865968775613425</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.036865840924975</v>
+        <v>4.036865840925003</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.04666095170991</v>
+        <v>2.046660951709939</v>
       </c>
       <c r="I15">
-        <v>0.06760000221433771</v>
+        <v>0.0676000022143981</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2939864559161194</v>
+        <v>0.2939864559160981</v>
       </c>
       <c r="L15">
         <v>1.214125991898797</v>
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.110700873454391</v>
+        <v>4.110700873454277</v>
       </c>
       <c r="C16">
-        <v>1.457951074287053</v>
+        <v>1.457951074287223</v>
       </c>
       <c r="D16">
-        <v>0.01784005222397766</v>
+        <v>0.01784005222426188</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.775865728532352</v>
+        <v>3.775865728532409</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.925920622921993</v>
+        <v>1.925920622922007</v>
       </c>
       <c r="I16">
-        <v>0.06453369588022539</v>
+        <v>0.06453369588024316</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2736016980182967</v>
+        <v>0.273601698018318</v>
       </c>
       <c r="L16">
-        <v>1.128113638773385</v>
+        <v>1.128113638773392</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,7 +988,7 @@
         <v>1.390032988325515</v>
       </c>
       <c r="D17">
-        <v>0.01737173752096055</v>
+        <v>0.01737173752119148</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.853776950584944</v>
+        <v>1.853776950584958</v>
       </c>
       <c r="I17">
-        <v>0.06270942633580567</v>
+        <v>0.06270942633577903</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2613227839259125</v>
+        <v>0.261322783925948</v>
       </c>
       <c r="L17">
-        <v>1.07616314440039</v>
+        <v>1.076163144400404</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.814745185455365</v>
+        <v>3.814745185455308</v>
       </c>
       <c r="C18">
         <v>1.351334248466344</v>
       </c>
       <c r="D18">
-        <v>0.01711395467844667</v>
+        <v>0.01711395467855326</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>1.812934903222512</v>
       </c>
       <c r="I18">
-        <v>0.06167953078571742</v>
+        <v>0.06167953078573696</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0.2543366628409842</v>
       </c>
       <c r="L18">
-        <v>1.046556247286169</v>
+        <v>1.046556247286162</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,16 +1061,16 @@
         <v>3.778489782807355</v>
       </c>
       <c r="C19">
-        <v>1.338291029182983</v>
+        <v>1.33829102918304</v>
       </c>
       <c r="D19">
-        <v>0.01702856461417568</v>
+        <v>0.01702856461455582</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.500842011191651</v>
+        <v>3.500842011191622</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>1.799213725690052</v>
       </c>
       <c r="I19">
-        <v>0.06133401871829136</v>
+        <v>0.06133401871829669</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2519837869707402</v>
+        <v>0.2519837869707544</v>
       </c>
       <c r="L19">
-        <v>1.036576530551166</v>
+        <v>1.036576530551173</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,31 +1099,31 @@
         <v>3.942218234434847</v>
       </c>
       <c r="C20">
-        <v>1.397224303955966</v>
+        <v>1.397224303956023</v>
       </c>
       <c r="D20">
-        <v>0.01742036831842242</v>
+        <v>0.01742036831865335</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.635945962774542</v>
+        <v>3.635945962774599</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.861387987086488</v>
+        <v>1.861387987086502</v>
       </c>
       <c r="I20">
-        <v>0.06290158506270593</v>
+        <v>0.06290158506269883</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2626218415118018</v>
+        <v>0.2626218415117947</v>
       </c>
       <c r="L20">
         <v>1.081664479242392</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.503527341129484</v>
+        <v>4.503527341129598</v>
       </c>
       <c r="C21">
-        <v>1.599868701736966</v>
+        <v>1.599868701736682</v>
       </c>
       <c r="D21">
-        <v>0.01888293057441714</v>
+        <v>0.01888293057439583</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.105479422276346</v>
+        <v>4.105479422276375</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>2.078476905969083</v>
       </c>
       <c r="I21">
-        <v>0.06841052253786017</v>
+        <v>0.06841052253781754</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2993253333510992</v>
+        <v>0.2993253333511205</v>
       </c>
       <c r="L21">
-        <v>1.236607217582701</v>
+        <v>1.236607217582716</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.880239349227338</v>
+        <v>4.880239349227168</v>
       </c>
       <c r="C22">
-        <v>1.736407896179742</v>
+        <v>1.736407896179514</v>
       </c>
       <c r="D22">
-        <v>0.01996686915653356</v>
+        <v>0.01996686915676094</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.425824036912957</v>
+        <v>4.4258240369129</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>2.227407191964531</v>
       </c>
       <c r="I22">
-        <v>0.07221714854577144</v>
+        <v>0.07221714854577499</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.678173278703525</v>
+        <v>4.678173278703696</v>
       </c>
       <c r="C23">
-        <v>1.663114425298147</v>
+        <v>1.663114425298488</v>
       </c>
       <c r="D23">
-        <v>0.01937528752366546</v>
+        <v>0.01937528752381468</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.147209585222612</v>
+        <v>2.147209585222626</v>
       </c>
       <c r="I23">
-        <v>0.07016482707223304</v>
+        <v>0.07016482707223659</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.933188453969706</v>
+        <v>3.933188453969649</v>
       </c>
       <c r="C24">
-        <v>1.393972034138528</v>
+        <v>1.393972034138073</v>
       </c>
       <c r="D24">
         <v>0.01739834690614828</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.85794507467331</v>
+        <v>1.857945074673282</v>
       </c>
       <c r="I24">
-        <v>0.06281465158174981</v>
+        <v>0.06281465158178001</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2620343112143502</v>
+        <v>0.262034311214336</v>
       </c>
       <c r="L24">
         <v>1.079176521604218</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.162661755794659</v>
+        <v>3.162661755794602</v>
       </c>
       <c r="C25">
         <v>1.117314298738506</v>
       </c>
       <c r="D25">
-        <v>0.01569914546236006</v>
+        <v>0.01569914546221796</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.000805062254585</v>
+        <v>3.000805062254614</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.570395207426557</v>
+        <v>1.570395207426571</v>
       </c>
       <c r="I25">
-        <v>0.05561325577574294</v>
+        <v>0.05561325577576604</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2122744139690127</v>
+        <v>0.212274413969034</v>
       </c>
       <c r="L25">
         <v>0.8674685051264746</v>

--- a/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.61510003204404</v>
+        <v>2.59480516369581</v>
       </c>
       <c r="C2">
-        <v>0.9217080699630174</v>
+        <v>0.9091669223412566</v>
       </c>
       <c r="D2">
-        <v>0.01471600520733674</v>
+        <v>0.01629979848564744</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.568111064293333</v>
+        <v>2.582896610108719</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000783682346053572</v>
       </c>
       <c r="H2">
-        <v>1.374329996631744</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.05078819467317608</v>
+        <v>1.388146607716408</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04988411372124624</v>
       </c>
       <c r="K2">
-        <v>0.1774193882369772</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7178250847572869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.176786571918413</v>
+      </c>
+      <c r="M2">
+        <v>0.7148119479804933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.252799108804766</v>
+        <v>2.235607108166846</v>
       </c>
       <c r="C3">
-        <v>0.7927070856248406</v>
+        <v>0.7817250701084788</v>
       </c>
       <c r="D3">
-        <v>0.0141752422564636</v>
+        <v>0.015884016169327</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.288907575669725</v>
+        <v>2.307414610315803</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007928979859175025</v>
       </c>
       <c r="H3">
-        <v>1.249005274203569</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.04775470862306186</v>
+        <v>1.264785255825217</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04682361793441459</v>
       </c>
       <c r="K3">
-        <v>0.1546319221655281</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6192494744624213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1540618948780121</v>
+      </c>
+      <c r="M3">
+        <v>0.6168816887403636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.033679276276303</v>
+        <v>2.018393518979394</v>
       </c>
       <c r="C4">
-        <v>0.71483997310429</v>
+        <v>0.7048164013905023</v>
       </c>
       <c r="D4">
-        <v>0.01389361420772417</v>
+        <v>0.01567899790972049</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.123171323567945</v>
+        <v>2.143951765063079</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000798691682020579</v>
       </c>
       <c r="H4">
-        <v>1.175151544903599</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.04599134662613658</v>
+        <v>1.192130772884227</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04504247717510701</v>
       </c>
       <c r="K4">
-        <v>0.1409729380966276</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5598271389303662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1404387016385158</v>
+      </c>
+      <c r="M4">
+        <v>0.5578514808409309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.945092371543296</v>
+        <v>1.93058543116021</v>
       </c>
       <c r="C5">
-        <v>0.6833902267354972</v>
+        <v>0.673758380435487</v>
       </c>
       <c r="D5">
-        <v>0.01379000446865675</v>
+        <v>0.01560663291228792</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.056900996765165</v>
+        <v>2.07860726600353</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008010887925655735</v>
       </c>
       <c r="H5">
-        <v>1.145750246338622</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.04529537219780622</v>
+        <v>1.163217817543853</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.04433897152494026</v>
       </c>
       <c r="K5">
-        <v>0.1354799394013639</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5358501497651176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1349596883765436</v>
+      </c>
+      <c r="M5">
+        <v>0.5340336993901644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.930421605967268</v>
+        <v>1.916044155508928</v>
       </c>
       <c r="C6">
-        <v>0.6781835219596815</v>
+        <v>0.6686168142940971</v>
       </c>
       <c r="D6">
-        <v>0.0137734325518224</v>
+        <v>0.01559525228076453</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.045968969694059</v>
+        <v>2.067828997856978</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008014890718621081</v>
       </c>
       <c r="H6">
-        <v>1.140907831634607</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.04518110726658442</v>
+        <v>1.158456503027367</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.044223439126581</v>
       </c>
       <c r="K6">
-        <v>0.1345719604141884</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5318820868520078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1340539979778903</v>
+      </c>
+      <c r="M6">
+        <v>0.5300920493524899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.032481868635557</v>
+        <v>2.01720660446847</v>
       </c>
       <c r="C7">
-        <v>0.7144147592362344</v>
+        <v>0.7043964647352254</v>
       </c>
       <c r="D7">
-        <v>0.01389217361134953</v>
+        <v>0.0156779785155976</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.122272648096782</v>
+        <v>2.143065575217562</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000798723861294981</v>
       </c>
       <c r="H7">
-        <v>1.174752321265387</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.04598187186601876</v>
+        <v>1.191738135164272</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.04503290198807974</v>
       </c>
       <c r="K7">
-        <v>0.140898574594118</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.55950286223608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1403645290601645</v>
+      </c>
+      <c r="M7">
+        <v>0.5575293531047762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.489402862308623</v>
+        <v>2.470178759210739</v>
       </c>
       <c r="C8">
-        <v>0.8769154135476924</v>
+        <v>0.8649121776675486</v>
       </c>
       <c r="D8">
-        <v>0.01451812316100032</v>
+        <v>0.01614507362509698</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.470556095665572</v>
+        <v>2.486628703823513</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007868331641159155</v>
       </c>
       <c r="H8">
-        <v>1.330422464797877</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.04972018353931951</v>
+        <v>1.344918128568082</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04880704683130688</v>
       </c>
       <c r="K8">
-        <v>0.1694866074321624</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6835822667695837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1688760753629879</v>
+      </c>
+      <c r="M8">
+        <v>0.6807927914038814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.418620437424579</v>
+        <v>3.391568935052021</v>
       </c>
       <c r="C9">
-        <v>1.209029649532283</v>
+        <v>1.19309701899607</v>
       </c>
       <c r="D9">
-        <v>0.01622367389960289</v>
+        <v>0.01753505393540067</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.207022455524168</v>
+        <v>3.213624494419491</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007644817346631242</v>
       </c>
       <c r="H9">
-        <v>1.664498916691301</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.05795593809361854</v>
+        <v>1.673997555137333</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05710281399333184</v>
       </c>
       <c r="K9">
-        <v>0.228718287867153</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9376592788987637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2279307556562529</v>
+      </c>
+      <c r="M9">
+        <v>0.933213107852076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.132330534767448</v>
+        <v>4.099321855557662</v>
       </c>
       <c r="C10">
-        <v>1.465753223009358</v>
+        <v>1.446834063657718</v>
       </c>
       <c r="D10">
-        <v>0.01789513676142462</v>
+        <v>0.01896716822422917</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.79389281818996</v>
+        <v>3.793202231777315</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007484797335473765</v>
       </c>
       <c r="H10">
-        <v>1.934245095503073</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.06474458944139272</v>
+        <v>1.939895956315539</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.06392794407378233</v>
       </c>
       <c r="K10">
-        <v>0.275013641834768</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.134080467676924</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2740708956404063</v>
+      </c>
+      <c r="M10">
+        <v>1.128342206497869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.466613763587247</v>
+        <v>4.430805665783396</v>
       </c>
       <c r="C11">
-        <v>1.586512920469147</v>
+        <v>1.56619145449946</v>
       </c>
       <c r="D11">
-        <v>0.01878111979945629</v>
+        <v>0.01974122918303323</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.07430954956979</v>
+        <v>4.070170620861234</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007412465723170647</v>
       </c>
       <c r="H11">
-        <v>2.064019761600818</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.06804209860326438</v>
+        <v>2.067851451820061</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.06723998481811932</v>
       </c>
       <c r="K11">
-        <v>0.2969009875949737</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.226400951558659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2958796221437723</v>
+      </c>
+      <c r="M11">
+        <v>1.220046965506597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.594863604035083</v>
+        <v>4.557977851102009</v>
       </c>
       <c r="C12">
-        <v>1.632933214182799</v>
+        <v>1.612072113032184</v>
       </c>
       <c r="D12">
-        <v>0.01913822808917232</v>
+        <v>0.0200553717582288</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.182775010061675</v>
+        <v>4.177305334315918</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007385098381297973</v>
       </c>
       <c r="H12">
-        <v>2.114354533550298</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.06932569535632993</v>
+        <v>2.11748425647815</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.06852874222367333</v>
       </c>
       <c r="K12">
-        <v>0.3053301196062463</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.261870556379463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3042775571893586</v>
+      </c>
+      <c r="M12">
+        <v>1.2552781510107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.567163729501885</v>
+        <v>4.530510936713199</v>
       </c>
       <c r="C13">
-        <v>1.622902915352427</v>
+        <v>1.602158459794452</v>
       </c>
       <c r="D13">
-        <v>0.01906029419956923</v>
+        <v>0.01998671988717149</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.159307664989996</v>
+        <v>4.15412580987774</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007390992165243071</v>
       </c>
       <c r="H13">
-        <v>2.103457929804989</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.06904761323223241</v>
+        <v>2.106739474188316</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.06824956472537735</v>
       </c>
       <c r="K13">
-        <v>0.3035081048068804</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.254207402817187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.302462329651604</v>
+      </c>
+      <c r="M13">
+        <v>1.247666601852032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.477129832165701</v>
+        <v>4.441233457927922</v>
       </c>
       <c r="C14">
-        <v>1.590317337922215</v>
+        <v>1.569951663557958</v>
       </c>
       <c r="D14">
-        <v>0.01881004373068507</v>
+        <v>0.01976663092998265</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.083185254482913</v>
+        <v>4.078937383821057</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007410214005857976</v>
       </c>
       <c r="H14">
-        <v>2.068135839575945</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.06814697128977798</v>
+        <v>2.071910061520612</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.06734528923290739</v>
       </c>
       <c r="K14">
-        <v>0.2975914966191482</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.229308316681966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2965675949359081</v>
+      </c>
+      <c r="M14">
+        <v>1.222934829178442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.422207296359886</v>
+        <v>4.386771804202965</v>
       </c>
       <c r="C15">
-        <v>1.5704516298577</v>
+        <v>1.550316770827806</v>
       </c>
       <c r="D15">
-        <v>0.01865968775613425</v>
+        <v>0.01963466896492605</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.036865840925003</v>
+        <v>4.033186611942682</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007421989541745177</v>
       </c>
       <c r="H15">
-        <v>2.046660951709939</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0676000022143981</v>
+        <v>2.050735142315361</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.06679604840322639</v>
       </c>
       <c r="K15">
-        <v>0.2939864559160981</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.214125991898797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2929757575365173</v>
+      </c>
+      <c r="M15">
+        <v>1.20785426259701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.110700873454277</v>
+        <v>4.077872962222898</v>
       </c>
       <c r="C16">
-        <v>1.457951074287223</v>
+        <v>1.439122491425337</v>
       </c>
       <c r="D16">
-        <v>0.01784005222426188</v>
+        <v>0.01891932503088611</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.775865728532409</v>
+        <v>3.775397371501896</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007489530116522659</v>
       </c>
       <c r="H16">
-        <v>1.925920622922007</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.06453369588024316</v>
+        <v>1.931688728203184</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.06371605568704908</v>
       </c>
       <c r="K16">
-        <v>0.273601698018318</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.128113638773392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2726639065508749</v>
+      </c>
+      <c r="M16">
+        <v>1.122414954379565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.922250980611238</v>
+        <v>3.890996770719369</v>
       </c>
       <c r="C17">
-        <v>1.390032988325515</v>
+        <v>1.37199305926913</v>
       </c>
       <c r="D17">
-        <v>0.01737173752119148</v>
+        <v>0.01851411577463935</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.61942328648297</v>
+        <v>3.620887205579322</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007531053586091493</v>
       </c>
       <c r="H17">
-        <v>1.853776950584958</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.06270942633577903</v>
+        <v>1.860564523755158</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.06188283259488614</v>
       </c>
       <c r="K17">
-        <v>0.261322783925948</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.076163144400404</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2604274903188966</v>
+      </c>
+      <c r="M17">
+        <v>1.070808045726523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.814745185455308</v>
+        <v>3.784388039436919</v>
       </c>
       <c r="C18">
-        <v>1.351334248466344</v>
+        <v>1.333743981668135</v>
       </c>
       <c r="D18">
-        <v>0.01711395467855326</v>
+        <v>0.01829235349689284</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.530683929680748</v>
+        <v>3.533247354664894</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007554983250946202</v>
       </c>
       <c r="H18">
-        <v>1.812934903222512</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.06167953078573696</v>
+        <v>1.820302597248286</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.06084759633179715</v>
       </c>
       <c r="K18">
-        <v>0.2543366628409842</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.046556247286162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2534650783050409</v>
+      </c>
+      <c r="M18">
+        <v>1.041396227543231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.778489782807355</v>
+        <v>3.748435105981116</v>
       </c>
       <c r="C19">
-        <v>1.33829102918304</v>
+        <v>1.32085239494063</v>
       </c>
       <c r="D19">
-        <v>0.01702856461455582</v>
+        <v>0.0182191159642926</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.500842011191622</v>
+        <v>3.503775834431423</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007563094622433808</v>
       </c>
       <c r="H19">
-        <v>1.799213725690052</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.06133401871829669</v>
+        <v>1.806776852147493</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.06050024442279422</v>
       </c>
       <c r="K19">
-        <v>0.2519837869707544</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.036576530551173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2511201111299854</v>
+      </c>
+      <c r="M19">
+        <v>1.031482158062069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.942218234434847</v>
+        <v>3.910797369360125</v>
       </c>
       <c r="C20">
-        <v>1.397224303956023</v>
+        <v>1.379100845529479</v>
       </c>
       <c r="D20">
-        <v>0.01742036831865335</v>
+        <v>0.01855605842312258</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.635945962774599</v>
+        <v>3.637205458454872</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007526628826582232</v>
       </c>
       <c r="H20">
-        <v>1.861387987086502</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.06290158506269883</v>
+        <v>1.868067704086414</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0620759644915978</v>
       </c>
       <c r="K20">
-        <v>0.2626218415117947</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.081664479242392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2617221017502374</v>
+      </c>
+      <c r="M20">
+        <v>1.076273076556504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.503527341129598</v>
+        <v>4.467409308095512</v>
       </c>
       <c r="C21">
-        <v>1.599868701736682</v>
+        <v>1.579392024922868</v>
       </c>
       <c r="D21">
-        <v>0.01888293057439583</v>
+        <v>0.01983067574551001</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.105479422276375</v>
+        <v>4.100957949682368</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007404567839233332</v>
       </c>
       <c r="H21">
-        <v>2.078476905969083</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.06841052253781754</v>
+        <v>2.082106800576838</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.06760991744765832</v>
       </c>
       <c r="K21">
-        <v>0.2993253333511205</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.236607217582716</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.29829504808054</v>
+      </c>
+      <c r="M21">
+        <v>1.230184739993305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.880239349227168</v>
+        <v>4.840946015639588</v>
       </c>
       <c r="C22">
-        <v>1.736407896179514</v>
+        <v>1.714341587685226</v>
       </c>
       <c r="D22">
-        <v>0.01996686915676094</v>
+        <v>0.0207882912819457</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.4258240369129</v>
+        <v>4.417375179879315</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007324903150953417</v>
       </c>
       <c r="H22">
-        <v>2.227407191964531</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.07221714854577499</v>
+        <v>2.228965563301742</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07143086827688094</v>
       </c>
       <c r="K22">
-        <v>0.3241470189868494</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.340891495759664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3230229297264415</v>
+      </c>
+      <c r="M22">
+        <v>1.333763717301792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.678173278703696</v>
+        <v>4.640586148536272</v>
       </c>
       <c r="C23">
-        <v>1.663114425298488</v>
+        <v>1.641902167417129</v>
       </c>
       <c r="D23">
-        <v>0.01937528752381468</v>
+        <v>0.02026450629557885</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.253488477674267</v>
+        <v>4.247151769001874</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.000736742786053502</v>
       </c>
       <c r="H23">
-        <v>2.147209585222626</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.07016482707223659</v>
+        <v>2.14988197252211</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0693711047664074</v>
       </c>
       <c r="K23">
-        <v>0.3108147685936729</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.28492565915009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3097416283091761</v>
+      </c>
+      <c r="M23">
+        <v>1.278177674138931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.933188453969649</v>
+        <v>3.901842957277893</v>
       </c>
       <c r="C24">
-        <v>1.393972034138073</v>
+        <v>1.375886350838016</v>
       </c>
       <c r="D24">
-        <v>0.01739834690614828</v>
+        <v>0.01853706152121148</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.628472343745386</v>
+        <v>3.629824294272112</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007528629079114476</v>
       </c>
       <c r="H24">
-        <v>1.857945074673282</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.06281465158178001</v>
+        <v>1.864673571857509</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.06198859163913184</v>
       </c>
       <c r="K24">
-        <v>0.262034311214336</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.079176521604218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2611365837931245</v>
+      </c>
+      <c r="M24">
+        <v>1.073801539513425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.162661755794602</v>
+        <v>3.13775108992138</v>
       </c>
       <c r="C25">
-        <v>1.117314298738506</v>
+        <v>1.10245576034464</v>
       </c>
       <c r="D25">
-        <v>0.01569914546221796</v>
+        <v>0.01709679894075933</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.000805062254614</v>
+        <v>3.010010977025473</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.000770441168689178</v>
       </c>
       <c r="H25">
-        <v>1.570395207426571</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.05561325577576604</v>
+        <v>1.581267795578242</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.0547451174482223</v>
       </c>
       <c r="K25">
-        <v>0.212274413969034</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8674685051264746</v>
+        <v>0.2115384543982515</v>
+      </c>
+      <c r="M25">
+        <v>0.8634802975403701</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.59480516369581</v>
+        <v>3.033716546369533</v>
       </c>
       <c r="C2">
-        <v>0.9091669223412566</v>
+        <v>0.3243340138930222</v>
       </c>
       <c r="D2">
-        <v>0.01629979848564744</v>
+        <v>0.02612344956446444</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.582896610108719</v>
+        <v>1.467587097376821</v>
       </c>
       <c r="G2">
-        <v>0.000783682346053572</v>
+        <v>0.0007954696018616917</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.388146607716408</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04988411372124624</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6760811474593282</v>
       </c>
       <c r="L2">
-        <v>0.176786571918413</v>
+        <v>0.4051049604468915</v>
       </c>
       <c r="M2">
-        <v>0.7148119479804933</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.8887608986265718</v>
+      </c>
+      <c r="O2">
+        <v>1.138404306158421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.235607108166846</v>
+        <v>2.632924217374921</v>
       </c>
       <c r="C3">
-        <v>0.7817250701084788</v>
+        <v>0.2873088154592836</v>
       </c>
       <c r="D3">
-        <v>0.015884016169327</v>
+        <v>0.0278641306545454</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.307414610315803</v>
+        <v>1.334590685837071</v>
       </c>
       <c r="G3">
-        <v>0.0007928979859175025</v>
+        <v>0.0008026180592715328</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.264785255825217</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04682361793441459</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5843096939772252</v>
       </c>
       <c r="L3">
-        <v>0.1540618948780121</v>
+        <v>0.3562081499582632</v>
       </c>
       <c r="M3">
-        <v>0.6168816887403636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.9350872849862171</v>
+      </c>
+      <c r="O3">
+        <v>1.044522114330675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.018393518979394</v>
+        <v>2.390231222963052</v>
       </c>
       <c r="C4">
-        <v>0.7048164013905023</v>
+        <v>0.2647020859627673</v>
       </c>
       <c r="D4">
-        <v>0.01567899790972049</v>
+        <v>0.02896466350371141</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.143951765063079</v>
+        <v>1.256056271929978</v>
       </c>
       <c r="G4">
-        <v>0.000798691682020579</v>
+        <v>0.00080713201780345</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.192130772884227</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04504247717510701</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5286315962782311</v>
       </c>
       <c r="L4">
-        <v>0.1404387016385158</v>
+        <v>0.3267957472666723</v>
       </c>
       <c r="M4">
-        <v>0.5578514808409309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.9651544967499817</v>
+      </c>
+      <c r="O4">
+        <v>0.989408093162595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.93058543116021</v>
+        <v>2.29207567735142</v>
       </c>
       <c r="C5">
-        <v>0.673758380435487</v>
+        <v>0.2555127237172883</v>
       </c>
       <c r="D5">
-        <v>0.01560663291228792</v>
+        <v>0.02942080947032644</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.07860726600353</v>
+        <v>1.224768729223058</v>
       </c>
       <c r="G5">
-        <v>0.0008010887925655735</v>
+        <v>0.0008090040310947939</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.163217817543853</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04433897152494026</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5060864131958667</v>
       </c>
       <c r="L5">
-        <v>0.1349596883765436</v>
+        <v>0.3149469018046887</v>
       </c>
       <c r="M5">
-        <v>0.5340336993901644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.9777972136615958</v>
+      </c>
+      <c r="O5">
+        <v>0.9675297756611485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.916044155508928</v>
+        <v>2.275818891345807</v>
       </c>
       <c r="C6">
-        <v>0.6686168142940971</v>
+        <v>0.2539879848608138</v>
       </c>
       <c r="D6">
-        <v>0.01559525228076453</v>
+        <v>0.02949700695862167</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.067828997856978</v>
+        <v>1.219614739904372</v>
       </c>
       <c r="G6">
-        <v>0.0008014890718621081</v>
+        <v>0.0008093168752558721</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.158456503027367</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.044223439126581</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5023508280703837</v>
       </c>
       <c r="L6">
-        <v>0.1340539979778903</v>
+        <v>0.3129872204298465</v>
       </c>
       <c r="M6">
-        <v>0.5300920493524899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.979919588720179</v>
+      </c>
+      <c r="O6">
+        <v>0.9639304609500883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.01720660446847</v>
+        <v>2.388904590539198</v>
       </c>
       <c r="C7">
-        <v>0.7043964647352254</v>
+        <v>0.2645780728059606</v>
       </c>
       <c r="D7">
-        <v>0.0156779785155976</v>
+        <v>0.02897078457893365</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.143065575217562</v>
+        <v>1.255631507630198</v>
       </c>
       <c r="G7">
-        <v>0.000798723861294981</v>
+        <v>0.0008071571312383998</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.191738135164272</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04503290198807974</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5283269914967832</v>
       </c>
       <c r="L7">
-        <v>0.1403645290601645</v>
+        <v>0.326635416091392</v>
       </c>
       <c r="M7">
-        <v>0.5575293531047762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.9653234441177858</v>
+      </c>
+      <c r="O7">
+        <v>0.9891107515364368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.470178759210739</v>
+        <v>2.894749794677978</v>
       </c>
       <c r="C8">
-        <v>0.8649121776675486</v>
+        <v>0.311535829834412</v>
       </c>
       <c r="D8">
-        <v>0.01614507362509698</v>
+        <v>0.02671684667281438</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.486628703823513</v>
+        <v>1.421037214506583</v>
       </c>
       <c r="G8">
-        <v>0.0007868331641159155</v>
+        <v>0.0007979092182765953</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.344918128568082</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04880704683130688</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6442840200030204</v>
       </c>
       <c r="L8">
-        <v>0.1688760753629879</v>
+        <v>0.388108278989705</v>
       </c>
       <c r="M8">
-        <v>0.6807927914038814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.9043862342099942</v>
+      </c>
+      <c r="O8">
+        <v>1.105474111784332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.391568935052021</v>
+        <v>3.91911161883047</v>
       </c>
       <c r="C9">
-        <v>1.19309701899607</v>
+        <v>0.4050692859947844</v>
       </c>
       <c r="D9">
-        <v>0.01753505393540067</v>
+        <v>0.02256500915384463</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.213624494419491</v>
+        <v>1.773671041117296</v>
       </c>
       <c r="G9">
-        <v>0.0007644817346631242</v>
+        <v>0.0007807069530955166</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.673997555137333</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05710281399333184</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8782035322378192</v>
       </c>
       <c r="L9">
-        <v>0.2279307556562529</v>
+        <v>0.5143197847198309</v>
       </c>
       <c r="M9">
-        <v>0.933213107852076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.7986456251456389</v>
+      </c>
+      <c r="O9">
+        <v>1.356463434570628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.099321855557662</v>
+        <v>4.699917803585492</v>
       </c>
       <c r="C10">
-        <v>1.446834063657718</v>
+        <v>0.4753625310043788</v>
       </c>
       <c r="D10">
-        <v>0.01896716822422917</v>
+        <v>0.01970453529321925</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.793202231777315</v>
+        <v>2.055340963196116</v>
       </c>
       <c r="G10">
-        <v>0.0007484797335473765</v>
+        <v>0.0007685494986663994</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.939895956315539</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06392794407378233</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.055922962391193</v>
       </c>
       <c r="L10">
-        <v>0.2740708956404063</v>
+        <v>0.611765046391497</v>
       </c>
       <c r="M10">
-        <v>1.128342206497869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.7307002792530994</v>
+      </c>
+      <c r="O10">
+        <v>1.558973033241159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.430805665783396</v>
+        <v>5.063389936654971</v>
       </c>
       <c r="C11">
-        <v>1.56619145449946</v>
+        <v>0.5078590182274354</v>
       </c>
       <c r="D11">
-        <v>0.01974122918303323</v>
+        <v>0.01845172924703975</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.070170620861234</v>
+        <v>2.189739066695623</v>
       </c>
       <c r="G11">
-        <v>0.0007412465723170647</v>
+        <v>0.0007631012914938401</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.067851451820061</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06723998481811932</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.138520222133252</v>
       </c>
       <c r="L11">
-        <v>0.2958796221437723</v>
+        <v>0.657438984647527</v>
       </c>
       <c r="M11">
-        <v>1.220046965506597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.7022503437305616</v>
+      </c>
+      <c r="O11">
+        <v>1.656097351380694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.557977851102009</v>
+        <v>5.202419289253385</v>
       </c>
       <c r="C12">
-        <v>1.612072113032184</v>
+        <v>0.5202560847940845</v>
       </c>
       <c r="D12">
-        <v>0.0200553717582288</v>
+        <v>0.01798503426848042</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.177305334315918</v>
+        <v>2.241661146073938</v>
       </c>
       <c r="G12">
-        <v>0.0007385098381297973</v>
+        <v>0.0007610479820428277</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.11748425647815</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06852874222367333</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.170094428438588</v>
       </c>
       <c r="L12">
-        <v>0.3042775571893586</v>
+        <v>0.6749580561862984</v>
       </c>
       <c r="M12">
-        <v>1.2552781510107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.6918637553165254</v>
+      </c>
+      <c r="O12">
+        <v>1.693696016149516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.530510936713199</v>
+        <v>5.172411560170417</v>
       </c>
       <c r="C13">
-        <v>1.602158459794452</v>
+        <v>0.5175818047499376</v>
       </c>
       <c r="D13">
-        <v>0.01998671988717149</v>
+        <v>0.01808518893029198</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.15412580987774</v>
+        <v>2.230430864191362</v>
       </c>
       <c r="G13">
-        <v>0.0007390992165243071</v>
+        <v>0.0007614897974886303</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.106739474188316</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06824956472537735</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.163280409150374</v>
       </c>
       <c r="L13">
-        <v>0.302462329651604</v>
+        <v>0.6711745648508725</v>
       </c>
       <c r="M13">
-        <v>1.247666601852032</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.6940829183994026</v>
+      </c>
+      <c r="O13">
+        <v>1.685560280123781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.441233457927922</v>
+        <v>5.07479887228601</v>
       </c>
       <c r="C14">
-        <v>1.569951663557958</v>
+        <v>0.508876998906544</v>
       </c>
       <c r="D14">
-        <v>0.01976663092998265</v>
+        <v>0.01841317459347636</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.078937383821057</v>
+        <v>2.193989331707598</v>
       </c>
       <c r="G14">
-        <v>0.0007410214005857976</v>
+        <v>0.0007629321802518842</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.071910061520612</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06734528923290739</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.141111636589002</v>
       </c>
       <c r="L14">
-        <v>0.2965675949359081</v>
+        <v>0.6588756297491756</v>
       </c>
       <c r="M14">
-        <v>1.222934829178442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.7013878764871322</v>
+      </c>
+      <c r="O14">
+        <v>1.659173567494449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.386771804202965</v>
+        <v>5.015195675574091</v>
       </c>
       <c r="C15">
-        <v>1.550316770827806</v>
+        <v>0.5035574792965178</v>
       </c>
       <c r="D15">
-        <v>0.01963466896492605</v>
+        <v>0.01861510447132875</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.033186611942682</v>
+        <v>2.171805814863319</v>
       </c>
       <c r="G15">
-        <v>0.0007421989541745177</v>
+        <v>0.0007638168948456888</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.050735142315361</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06679604840322639</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.12757263659995</v>
       </c>
       <c r="L15">
-        <v>0.2929757575365173</v>
+        <v>0.6513722074534058</v>
       </c>
       <c r="M15">
-        <v>1.20785426259701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.7059137992619213</v>
+      </c>
+      <c r="O15">
+        <v>1.643120893678528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.077872962222898</v>
+        <v>4.676347202532554</v>
       </c>
       <c r="C16">
-        <v>1.439122491425337</v>
+        <v>0.473250641545377</v>
       </c>
       <c r="D16">
-        <v>0.01891932503088611</v>
+        <v>0.01978744514972408</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.775397371501896</v>
+        <v>2.046694366168154</v>
       </c>
       <c r="G16">
-        <v>0.0007489530116522659</v>
+        <v>0.0007689070396802046</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.931688728203184</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06371605568704908</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.05056397504346</v>
       </c>
       <c r="L16">
-        <v>0.2726639065508749</v>
+        <v>0.608809698333431</v>
       </c>
       <c r="M16">
-        <v>1.122414954379565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.7326117762662037</v>
+      </c>
+      <c r="O16">
+        <v>1.552734707051613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.890996770719369</v>
+        <v>4.470730221466795</v>
       </c>
       <c r="C17">
-        <v>1.37199305926913</v>
+        <v>0.454802686667648</v>
       </c>
       <c r="D17">
-        <v>0.01851411577463935</v>
+        <v>0.02051954021308688</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.620887205579322</v>
+        <v>1.971633346737022</v>
       </c>
       <c r="G17">
-        <v>0.0007531053586091493</v>
+        <v>0.0007720493821419846</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.860564523755158</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06188283259488614</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.003800399496143</v>
       </c>
       <c r="L17">
-        <v>0.2604274903188966</v>
+        <v>0.5830638041825438</v>
       </c>
       <c r="M17">
-        <v>1.070808045726523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.7496422860490313</v>
+      </c>
+      <c r="O17">
+        <v>1.498634683183354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.784388039436919</v>
+        <v>4.35323083109904</v>
       </c>
       <c r="C18">
-        <v>1.333743981668135</v>
+        <v>0.4442397230684207</v>
       </c>
       <c r="D18">
-        <v>0.01829235349689284</v>
+        <v>0.02094512947478833</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.533247354664894</v>
+        <v>1.929041471816888</v>
       </c>
       <c r="G18">
-        <v>0.0007554983250946202</v>
+        <v>0.0007738646525528679</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.820302597248286</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06084759633179715</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.977065161513849</v>
       </c>
       <c r="L18">
-        <v>0.2534650783050409</v>
+        <v>0.5683801246586455</v>
       </c>
       <c r="M18">
-        <v>1.041396227543231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.7596670058363486</v>
+      </c>
+      <c r="O18">
+        <v>1.467981889516693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.748435105981116</v>
+        <v>4.313573411248001</v>
       </c>
       <c r="C19">
-        <v>1.32085239494063</v>
+        <v>0.4406710233716353</v>
       </c>
       <c r="D19">
-        <v>0.0182191159642926</v>
+        <v>0.02108997997116802</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.503775834431423</v>
+        <v>1.914716774368983</v>
       </c>
       <c r="G19">
-        <v>0.0007563094622433808</v>
+        <v>0.0007744806830793757</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.806776852147493</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06050024442279422</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9680396086792626</v>
       </c>
       <c r="L19">
-        <v>0.2511201111299854</v>
+        <v>0.5634290417361854</v>
       </c>
       <c r="M19">
-        <v>1.031482158062069</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.7630996235119412</v>
+      </c>
+      <c r="O19">
+        <v>1.457680215872657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.910797369360125</v>
+        <v>4.492537842107879</v>
       </c>
       <c r="C20">
-        <v>1.379100845529479</v>
+        <v>0.4567614407122278</v>
       </c>
       <c r="D20">
-        <v>0.01855605842312258</v>
+        <v>0.02044113588609964</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.637205458454872</v>
+        <v>1.979562687563828</v>
       </c>
       <c r="G20">
-        <v>0.0007526628826582232</v>
+        <v>0.0007717140729452825</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.868067704086414</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0620759644915978</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.008761396460372</v>
       </c>
       <c r="L20">
-        <v>0.2617221017502374</v>
+        <v>0.5857913894672606</v>
       </c>
       <c r="M20">
-        <v>1.076273076556504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.7478054075466289</v>
+      </c>
+      <c r="O20">
+        <v>1.504344998389229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.467409308095512</v>
+        <v>5.103430642059493</v>
       </c>
       <c r="C21">
-        <v>1.579392024922868</v>
+        <v>0.5114311893210868</v>
       </c>
       <c r="D21">
-        <v>0.01983067574551001</v>
+        <v>0.0183166212518322</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.100957949682368</v>
+        <v>2.204664090261616</v>
       </c>
       <c r="G21">
-        <v>0.0007404567839233332</v>
+        <v>0.0007625082685761449</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.082106800576838</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06760991744765832</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.147614716698769</v>
       </c>
       <c r="L21">
-        <v>0.29829504808054</v>
+        <v>0.6624818085365689</v>
       </c>
       <c r="M21">
-        <v>1.230184739993305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.6992314512498865</v>
+      </c>
+      <c r="O21">
+        <v>1.666900874576967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.840946015639588</v>
+        <v>5.510898742022448</v>
       </c>
       <c r="C22">
-        <v>1.714341587685226</v>
+        <v>0.5477027778401009</v>
       </c>
       <c r="D22">
-        <v>0.0207882912819457</v>
+        <v>0.0169735432883229</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.417375179879315</v>
+        <v>2.357845869205377</v>
       </c>
       <c r="G22">
-        <v>0.0007324903150953417</v>
+        <v>0.0007565478029638988</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.228965563301742</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07143086827688094</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.24011575921547</v>
       </c>
       <c r="L22">
-        <v>0.3230229297264415</v>
+        <v>0.7139216901090464</v>
       </c>
       <c r="M22">
-        <v>1.333763717301792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.6697584688258118</v>
+      </c>
+      <c r="O22">
+        <v>1.777974576762034</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.640586148536272</v>
+        <v>5.292601404420054</v>
       </c>
       <c r="C23">
-        <v>1.641902167417129</v>
+        <v>0.528288327443903</v>
       </c>
       <c r="D23">
-        <v>0.02026450629557885</v>
+        <v>0.01768593185554745</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.247151769001874</v>
+        <v>2.275488730225277</v>
       </c>
       <c r="G23">
-        <v>0.000736742786053502</v>
+        <v>0.0007597246162376861</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.14988197252211</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0693711047664074</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.190569739276413</v>
       </c>
       <c r="L23">
-        <v>0.3097416283091761</v>
+        <v>0.6863358430234285</v>
       </c>
       <c r="M23">
-        <v>1.278177674138931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.6852687271961244</v>
+      </c>
+      <c r="O23">
+        <v>1.718213688523946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.901842957277893</v>
+        <v>4.48267641217825</v>
       </c>
       <c r="C24">
-        <v>1.375886350838016</v>
+        <v>0.4558757552663053</v>
       </c>
       <c r="D24">
-        <v>0.01853706152121148</v>
+        <v>0.02047656790395702</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.629824294272112</v>
+        <v>1.975976092439282</v>
       </c>
       <c r="G24">
-        <v>0.0007528629079114476</v>
+        <v>0.0007718656390467427</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.864673571857509</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06198859163913184</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.006518066546406</v>
       </c>
       <c r="L24">
-        <v>0.2611365837931245</v>
+        <v>0.5845578828966467</v>
       </c>
       <c r="M24">
-        <v>1.073801539513425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.7486351350030702</v>
+      </c>
+      <c r="O24">
+        <v>1.501761970588902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.13775108992138</v>
+        <v>3.637704637374213</v>
       </c>
       <c r="C25">
-        <v>1.10245576034464</v>
+        <v>0.3795440252240496</v>
       </c>
       <c r="D25">
-        <v>0.01709679894075933</v>
+        <v>0.02365701289847821</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.010010977025473</v>
+        <v>1.674727524042623</v>
       </c>
       <c r="G25">
-        <v>0.000770441168689178</v>
+        <v>0.0007852693045321717</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.581267795578242</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0547451174482223</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8140408246069768</v>
       </c>
       <c r="L25">
-        <v>0.2115384543982515</v>
+        <v>0.4794469417549436</v>
       </c>
       <c r="M25">
-        <v>0.8634802975403701</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.8256472410193822</v>
+      </c>
+      <c r="O25">
+        <v>1.285714811581997</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.033716546369533</v>
+        <v>0.9411212987258466</v>
       </c>
       <c r="C2">
-        <v>0.3243340138930222</v>
+        <v>0.16460726225543</v>
       </c>
       <c r="D2">
-        <v>0.02612344956446444</v>
+        <v>0.06965410605757683</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.467587097376821</v>
+        <v>0.4303303309542983</v>
       </c>
       <c r="G2">
-        <v>0.0007954696018616917</v>
+        <v>0.325517962177166</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2821899570456878</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2274416110157134</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6760811474593282</v>
+        <v>1.048271349184205</v>
       </c>
       <c r="L2">
-        <v>0.4051049604468915</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8887608986265718</v>
+        <v>0.6696126324823233</v>
       </c>
       <c r="O2">
-        <v>1.138404306158421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.632924217374921</v>
+        <v>0.8179299224762815</v>
       </c>
       <c r="C3">
-        <v>0.2873088154592836</v>
+        <v>0.1435996884130049</v>
       </c>
       <c r="D3">
-        <v>0.0278641306545454</v>
+        <v>0.06262864637977117</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.334590685837071</v>
+        <v>0.4099814438210387</v>
       </c>
       <c r="G3">
-        <v>0.0008026180592715328</v>
+        <v>0.3143995637722483</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2832993802705559</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2314989237096015</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5843096939772252</v>
+        <v>0.9114053569485918</v>
       </c>
       <c r="L3">
-        <v>0.3562081499582632</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9350872849862171</v>
+        <v>0.7034853155889174</v>
       </c>
       <c r="O3">
-        <v>1.044522114330675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.390231222963052</v>
+        <v>0.7424173457266363</v>
       </c>
       <c r="C4">
-        <v>0.2647020859627673</v>
+        <v>0.1307295045108816</v>
       </c>
       <c r="D4">
-        <v>0.02896466350371141</v>
+        <v>0.05829976555468619</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.256056271929978</v>
+        <v>0.398467531032864</v>
       </c>
       <c r="G4">
-        <v>0.00080713201780345</v>
+        <v>0.3084998341657084</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.284554175284299</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2345911778361298</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5286315962782311</v>
+        <v>0.827516559737262</v>
       </c>
       <c r="L4">
-        <v>0.3267957472666723</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9651544967499817</v>
+        <v>0.725289170424734</v>
       </c>
       <c r="O4">
-        <v>0.989408093162595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.29207567735142</v>
+        <v>0.7116669629465378</v>
       </c>
       <c r="C5">
-        <v>0.2555127237172883</v>
+        <v>0.1254894871386085</v>
       </c>
       <c r="D5">
-        <v>0.02942080947032644</v>
+        <v>0.05653161150971187</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.224768729223058</v>
+        <v>0.3940092671132263</v>
       </c>
       <c r="G5">
-        <v>0.0008090040310947939</v>
+        <v>0.3063164187062029</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2852042431094333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2359963583941855</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5060864131958667</v>
+        <v>0.7933557662106807</v>
       </c>
       <c r="L5">
-        <v>0.3149469018046887</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9777972136615958</v>
+        <v>0.7344209193266042</v>
       </c>
       <c r="O5">
-        <v>0.9675297756611485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.275818891345807</v>
+        <v>0.7065618959834126</v>
       </c>
       <c r="C6">
-        <v>0.2539879848608138</v>
+        <v>0.1246195991348458</v>
       </c>
       <c r="D6">
-        <v>0.02949700695862167</v>
+        <v>0.05623775561335975</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.219614739904372</v>
+        <v>0.3932827310158515</v>
       </c>
       <c r="G6">
-        <v>0.0008093168752558721</v>
+        <v>0.3059668484002955</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2853204089724741</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2362382763417017</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5023508280703837</v>
+        <v>0.7876845238892543</v>
       </c>
       <c r="L6">
-        <v>0.3129872204298465</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.979919588720179</v>
+        <v>0.7359519447207798</v>
       </c>
       <c r="O6">
-        <v>0.9639304609500883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.388904590539198</v>
+        <v>0.7420025612172765</v>
       </c>
       <c r="C7">
-        <v>0.2645780728059606</v>
+        <v>0.1306588200195762</v>
       </c>
       <c r="D7">
-        <v>0.02897078457893365</v>
+        <v>0.05827593655970276</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.255631507630198</v>
+        <v>0.3984064753496881</v>
       </c>
       <c r="G7">
-        <v>0.0008071571312383998</v>
+        <v>0.3084695098502195</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2845623877131018</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2346095490755467</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5283269914967832</v>
+        <v>0.8270557718808504</v>
       </c>
       <c r="L7">
-        <v>0.326635416091392</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9653234441177858</v>
+        <v>0.7254113345956661</v>
       </c>
       <c r="O7">
-        <v>0.9891107515364368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.894749794677978</v>
+        <v>0.898611971424998</v>
       </c>
       <c r="C8">
-        <v>0.311535829834412</v>
+        <v>0.1573563752472609</v>
       </c>
       <c r="D8">
-        <v>0.02671684667281438</v>
+        <v>0.06723471504136569</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.421037214506583</v>
+        <v>0.4231026784466678</v>
       </c>
       <c r="G8">
-        <v>0.0007979092182765953</v>
+        <v>0.3214843350048682</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2824500389515734</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2287120842632504</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6442840200030204</v>
+        <v>1.001041564839284</v>
       </c>
       <c r="L8">
-        <v>0.388108278989705</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9043862342099942</v>
+        <v>0.681079199995132</v>
       </c>
       <c r="O8">
-        <v>1.105474111784332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.91911161883047</v>
+        <v>1.207247277948767</v>
       </c>
       <c r="C9">
-        <v>0.4050692859947844</v>
+        <v>0.210058697164456</v>
       </c>
       <c r="D9">
-        <v>0.02256500915384463</v>
+        <v>0.08469606310576694</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.773671041117296</v>
+        <v>0.4799187284895368</v>
       </c>
       <c r="G9">
-        <v>0.0007807069530955166</v>
+        <v>0.3549478219446769</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2831205765960192</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2222035967278195</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8782035322378192</v>
+        <v>1.344011959342424</v>
       </c>
       <c r="L9">
-        <v>0.5143197847198309</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7986456251456389</v>
+        <v>0.6024277459162306</v>
       </c>
       <c r="O9">
-        <v>1.356463434570628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.699917803585492</v>
+        <v>1.435710287140296</v>
       </c>
       <c r="C10">
-        <v>0.4753625310043788</v>
+        <v>0.2491758777691615</v>
       </c>
       <c r="D10">
-        <v>0.01970453529321925</v>
+        <v>0.09748171688346474</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.055340963196116</v>
+        <v>0.5276687415904249</v>
       </c>
       <c r="G10">
-        <v>0.0007685494986663994</v>
+        <v>0.3852360705945586</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2869313960742659</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2209247120224447</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.055922962391193</v>
+        <v>1.598011502564219</v>
       </c>
       <c r="L10">
-        <v>0.611765046391497</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7307002792530994</v>
+        <v>0.5501318519811953</v>
       </c>
       <c r="O10">
-        <v>1.558973033241159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.063389936654971</v>
+        <v>1.540201501280393</v>
       </c>
       <c r="C11">
-        <v>0.5078590182274354</v>
+        <v>0.2671018304133526</v>
       </c>
       <c r="D11">
-        <v>0.01845172924703975</v>
+        <v>0.1032941395793685</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.189739066695623</v>
+        <v>0.550907219913249</v>
       </c>
       <c r="G11">
-        <v>0.0007631012914938401</v>
+        <v>0.4004569706760321</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2894764700454573</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2212026812001859</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.138520222133252</v>
+        <v>1.714224002026896</v>
       </c>
       <c r="L11">
-        <v>0.657438984647527</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7022503437305616</v>
+        <v>0.5276367321914108</v>
       </c>
       <c r="O11">
-        <v>1.656097351380694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.202419289253385</v>
+        <v>1.579866698195275</v>
       </c>
       <c r="C12">
-        <v>0.5202560847940845</v>
+        <v>0.2739127418335272</v>
       </c>
       <c r="D12">
-        <v>0.01798503426848042</v>
+        <v>0.1054950459742585</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.241661146073938</v>
+        <v>0.5599439200268748</v>
       </c>
       <c r="G12">
-        <v>0.0007610479820428277</v>
+        <v>0.406446346548833</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2905650490674532</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2214404282869182</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.170094428438588</v>
+        <v>1.758346052071033</v>
       </c>
       <c r="L12">
-        <v>0.6749580561862984</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6918637553165254</v>
+        <v>0.5193139471763359</v>
       </c>
       <c r="O12">
-        <v>1.693696016149516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.172411560170417</v>
+        <v>1.571319526420297</v>
       </c>
       <c r="C13">
-        <v>0.5175818047499376</v>
+        <v>0.2724448141392486</v>
       </c>
       <c r="D13">
-        <v>0.01808518893029198</v>
+        <v>0.1050210402583858</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.230430864191362</v>
+        <v>0.5579868627032241</v>
       </c>
       <c r="G13">
-        <v>0.0007614897974886303</v>
+        <v>0.4051460944875629</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2903249177367258</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2213831855923551</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.163280409150374</v>
+        <v>1.748838151292773</v>
       </c>
       <c r="L13">
-        <v>0.6711745648508725</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6940829183994026</v>
+        <v>0.521097549777096</v>
       </c>
       <c r="O13">
-        <v>1.685560280123781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.07479887228601</v>
+        <v>1.543462749517261</v>
       </c>
       <c r="C14">
-        <v>0.508876998906544</v>
+        <v>0.2676616892608479</v>
       </c>
       <c r="D14">
-        <v>0.01841317459347636</v>
+        <v>0.1034752096037437</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.193989331707598</v>
+        <v>0.5516458175363681</v>
       </c>
       <c r="G14">
-        <v>0.0007629321802518842</v>
+        <v>0.4009450918046156</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2895634781523029</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2212195327769528</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.141111636589002</v>
+        <v>1.717851533023463</v>
       </c>
       <c r="L14">
-        <v>0.6588756297491756</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7013878764871322</v>
+        <v>0.526948034515911</v>
       </c>
       <c r="O14">
-        <v>1.659173567494449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.015195675574091</v>
+        <v>1.526412743128617</v>
       </c>
       <c r="C15">
-        <v>0.5035574792965178</v>
+        <v>0.2647349683639817</v>
       </c>
       <c r="D15">
-        <v>0.01861510447132875</v>
+        <v>0.1025283394903269</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.171805814863319</v>
+        <v>0.5477931573829267</v>
       </c>
       <c r="G15">
-        <v>0.0007638168948456888</v>
+        <v>0.3984017878665043</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2891135793434501</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2211368170516685</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.12757263659995</v>
+        <v>1.698886885815341</v>
       </c>
       <c r="L15">
-        <v>0.6513722074534058</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7059137992619213</v>
+        <v>0.5305573936110939</v>
       </c>
       <c r="O15">
-        <v>1.643120893678528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.676347202532554</v>
+        <v>1.428894178553378</v>
       </c>
       <c r="C16">
-        <v>0.473250641545377</v>
+        <v>0.2480073404485097</v>
       </c>
       <c r="D16">
-        <v>0.01978744514972408</v>
+        <v>0.09710181938511653</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.046694366168154</v>
+        <v>0.5261821427836963</v>
       </c>
       <c r="G16">
-        <v>0.0007689070396802046</v>
+        <v>0.384271898480705</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2867820810329249</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2209245903289627</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.05056397504346</v>
+        <v>1.590431754289256</v>
       </c>
       <c r="L16">
-        <v>0.608809698333431</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7326117762662037</v>
+        <v>0.5516288066844375</v>
       </c>
       <c r="O16">
-        <v>1.552734707051613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.470730221466795</v>
+        <v>1.369224585023318</v>
       </c>
       <c r="C17">
-        <v>0.454802686667648</v>
+        <v>0.2377817745643682</v>
       </c>
       <c r="D17">
-        <v>0.02051954021308688</v>
+        <v>0.09377213171057264</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.971633346737022</v>
+        <v>0.5133258754912191</v>
       </c>
       <c r="G17">
-        <v>0.0007720493821419846</v>
+        <v>0.3759856656321148</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2855652388556109</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2210207192785703</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.003800399496143</v>
+        <v>1.524081929368464</v>
       </c>
       <c r="L17">
-        <v>0.5830638041825438</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7496422860490313</v>
+        <v>0.5648935526093979</v>
       </c>
       <c r="O17">
-        <v>1.498634683183354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.35323083109904</v>
+        <v>1.334956123182621</v>
       </c>
       <c r="C18">
-        <v>0.4442397230684207</v>
+        <v>0.2319124150819505</v>
       </c>
       <c r="D18">
-        <v>0.02094512947478833</v>
+        <v>0.09185659551164349</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.929041471816888</v>
+        <v>0.5060728658024516</v>
       </c>
       <c r="G18">
-        <v>0.0007738646525528679</v>
+        <v>0.3713542772011635</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2849412095421826</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.221156369770295</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.977065161513849</v>
+        <v>1.485980812364716</v>
       </c>
       <c r="L18">
-        <v>0.5683801246586455</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7596670058363486</v>
+        <v>0.5726443301182549</v>
       </c>
       <c r="O18">
-        <v>1.467981889516693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.313573411248001</v>
+        <v>1.323361863579834</v>
       </c>
       <c r="C19">
-        <v>0.4406710233716353</v>
+        <v>0.2299271190240688</v>
       </c>
       <c r="D19">
-        <v>0.02108997997116802</v>
+        <v>0.09120794895444817</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.914716774368983</v>
+        <v>0.5036408875237655</v>
       </c>
       <c r="G19">
-        <v>0.0007744806830793757</v>
+        <v>0.3698087599184845</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2847427153612188</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2212158399390844</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9680396086792626</v>
+        <v>1.47309044281954</v>
       </c>
       <c r="L19">
-        <v>0.5634290417361854</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7630996235119412</v>
+        <v>0.5752891554969857</v>
       </c>
       <c r="O19">
-        <v>1.457680215872657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.492537842107879</v>
+        <v>1.375571031818652</v>
       </c>
       <c r="C20">
-        <v>0.4567614407122278</v>
+        <v>0.2388690226178909</v>
       </c>
       <c r="D20">
-        <v>0.02044113588609964</v>
+        <v>0.0941266198530144</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.979562687563828</v>
+        <v>0.5146796631445838</v>
       </c>
       <c r="G20">
-        <v>0.0007717140729452825</v>
+        <v>0.3768536878896072</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2856868648309643</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2210021069336747</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.008761396460372</v>
+        <v>1.531138478275409</v>
       </c>
       <c r="L20">
-        <v>0.5857913894672606</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7478054075466289</v>
+        <v>0.5634688825020149</v>
       </c>
       <c r="O20">
-        <v>1.504344998389229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.103430642059493</v>
+        <v>1.551642205768985</v>
       </c>
       <c r="C21">
-        <v>0.5114311893210868</v>
+        <v>0.2690659595570537</v>
       </c>
       <c r="D21">
-        <v>0.0183166212518322</v>
+        <v>0.1039292576217434</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.204664090261616</v>
+        <v>0.5535017546379137</v>
       </c>
       <c r="G21">
-        <v>0.0007625082685761449</v>
+        <v>0.4021727563867046</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2897836765333324</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2212639324712242</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.147614716698769</v>
+        <v>1.726949777162474</v>
       </c>
       <c r="L21">
-        <v>0.6624818085365689</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6992314512498865</v>
+        <v>0.5252242174720294</v>
       </c>
       <c r="O21">
-        <v>1.666900874576967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.510898742022448</v>
+        <v>1.667286366208089</v>
       </c>
       <c r="C22">
-        <v>0.5477027778401009</v>
+        <v>0.2889359714617683</v>
       </c>
       <c r="D22">
-        <v>0.0169735432883229</v>
+        <v>0.110335296276844</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.357845869205377</v>
+        <v>0.5802640271079085</v>
       </c>
       <c r="G22">
-        <v>0.0007565478029638988</v>
+        <v>0.4200442131176629</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.293192867169509</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2222118171108463</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.24011575921547</v>
+        <v>1.855603345258572</v>
       </c>
       <c r="L22">
-        <v>0.7139216901090464</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6697584688258118</v>
+        <v>0.5013742364984068</v>
       </c>
       <c r="O22">
-        <v>1.777974576762034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.292601404420054</v>
+        <v>1.605507090995815</v>
       </c>
       <c r="C23">
-        <v>0.528288327443903</v>
+        <v>0.2783173061513935</v>
       </c>
       <c r="D23">
-        <v>0.01768593185554745</v>
+        <v>0.1069161765938134</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.275488730225277</v>
+        <v>0.5658468298829433</v>
       </c>
       <c r="G23">
-        <v>0.0007597246162376861</v>
+        <v>0.4103784312178789</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2913035399550807</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2216317590742989</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.190569739276413</v>
+        <v>1.786869683022928</v>
       </c>
       <c r="L23">
-        <v>0.6863358430234285</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6852687271961244</v>
+        <v>0.513995349278261</v>
       </c>
       <c r="O23">
-        <v>1.718213688523946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.48267641217825</v>
+        <v>1.372701691079726</v>
       </c>
       <c r="C24">
-        <v>0.4558757552663053</v>
+        <v>0.238377448611871</v>
       </c>
       <c r="D24">
-        <v>0.02047656790395702</v>
+        <v>0.09396635970207257</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.975976092439282</v>
+        <v>0.5140671865903883</v>
       </c>
       <c r="G24">
-        <v>0.0007718656390467427</v>
+        <v>0.3764608437447379</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2856316430155061</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2210102718574802</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.006518066546406</v>
+        <v>1.527948076008983</v>
       </c>
       <c r="L24">
-        <v>0.5845578828966467</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7486351350030702</v>
+        <v>0.5641125881594249</v>
       </c>
       <c r="O24">
-        <v>1.501761970588902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.637704637374213</v>
+        <v>1.123512631980475</v>
       </c>
       <c r="C25">
-        <v>0.3795440252240496</v>
+        <v>0.1957457590961837</v>
       </c>
       <c r="D25">
-        <v>0.02365701289847821</v>
+        <v>0.0799815642363626</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.674727524042623</v>
+        <v>0.4635614930184175</v>
       </c>
       <c r="G25">
-        <v>0.0007852693045321717</v>
+        <v>0.3449591033552792</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2823856917050449</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2233810931939573</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8140408246069768</v>
+        <v>1.250945877332612</v>
       </c>
       <c r="L25">
-        <v>0.4794469417549436</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8256472410193822</v>
+        <v>0.6227744889835698</v>
       </c>
       <c r="O25">
-        <v>1.285714811581997</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9411212987258466</v>
+        <v>0.3270505502951835</v>
       </c>
       <c r="C2">
-        <v>0.16460726225543</v>
+        <v>0.05059594725676675</v>
       </c>
       <c r="D2">
-        <v>0.06965410605757683</v>
+        <v>0.03169699048302732</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4303303309542983</v>
+        <v>0.6681628566188209</v>
       </c>
       <c r="G2">
-        <v>0.325517962177166</v>
+        <v>0.5082445335594912</v>
       </c>
       <c r="H2">
-        <v>0.2821899570456878</v>
+        <v>0.6539383294400807</v>
       </c>
       <c r="I2">
-        <v>0.2274416110157134</v>
+        <v>0.4951984570817061</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.048271349184205</v>
+        <v>0.3441850223563563</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6696126324823233</v>
+        <v>1.2816510421465</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8179299224762815</v>
+        <v>0.2900796426515626</v>
       </c>
       <c r="C3">
-        <v>0.1435996884130049</v>
+        <v>0.04414566512869555</v>
       </c>
       <c r="D3">
-        <v>0.06262864637977117</v>
+        <v>0.02928759997225683</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4099814438210387</v>
+        <v>0.6687410565119478</v>
       </c>
       <c r="G3">
-        <v>0.3143995637722483</v>
+        <v>0.5103910393110809</v>
       </c>
       <c r="H3">
-        <v>0.2832993802705559</v>
+        <v>0.6589369627200412</v>
       </c>
       <c r="I3">
-        <v>0.2314989237096015</v>
+        <v>0.5004632671834415</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9114053569485918</v>
+        <v>0.3028698510027539</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7034853155889174</v>
+        <v>1.296030060003176</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7424173457266363</v>
+        <v>0.267393040291978</v>
       </c>
       <c r="C4">
-        <v>0.1307295045108816</v>
+        <v>0.04017159623822408</v>
       </c>
       <c r="D4">
-        <v>0.05829976555468619</v>
+        <v>0.02779628046827298</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.398467531032864</v>
+        <v>0.6695553835644148</v>
       </c>
       <c r="G4">
-        <v>0.3084998341657084</v>
+        <v>0.5121063113227748</v>
       </c>
       <c r="H4">
-        <v>0.284554175284299</v>
+        <v>0.6623251112328674</v>
       </c>
       <c r="I4">
-        <v>0.2345911778361298</v>
+        <v>0.503993618957022</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.827516559737262</v>
+        <v>0.2774933562772333</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.725289170424734</v>
+        <v>1.30534558168949</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7116669629465378</v>
+        <v>0.2581520103259152</v>
       </c>
       <c r="C5">
-        <v>0.1254894871386085</v>
+        <v>0.03854875941664204</v>
       </c>
       <c r="D5">
-        <v>0.05653161150971187</v>
+        <v>0.02718558653982228</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3940092671132263</v>
+        <v>0.6700026743331691</v>
       </c>
       <c r="G5">
-        <v>0.3063164187062029</v>
+        <v>0.5129050647813003</v>
       </c>
       <c r="H5">
-        <v>0.2852042431094333</v>
+        <v>0.6637860344121265</v>
       </c>
       <c r="I5">
-        <v>0.2359963583941855</v>
+        <v>0.5055070875369267</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7933557662106807</v>
+        <v>0.2671505079258054</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7344209193266042</v>
+        <v>1.309264127776732</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7065618959834126</v>
+        <v>0.2566177974229618</v>
       </c>
       <c r="C6">
-        <v>0.1246195991348458</v>
+        <v>0.03827908617215314</v>
       </c>
       <c r="D6">
-        <v>0.05623775561335975</v>
+        <v>0.02708400295964708</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3932827310158515</v>
+        <v>0.6700839177704978</v>
       </c>
       <c r="G6">
-        <v>0.3059668484002955</v>
+        <v>0.5130437187025549</v>
       </c>
       <c r="H6">
-        <v>0.2853204089724741</v>
+        <v>0.6640334655372229</v>
       </c>
       <c r="I6">
-        <v>0.2362382763417017</v>
+        <v>0.505762915509905</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7876845238892543</v>
+        <v>0.2654329964992428</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7359519447207798</v>
+        <v>1.309922191762039</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7420025612172765</v>
+        <v>0.267268395891108</v>
       </c>
       <c r="C7">
-        <v>0.1306588200195762</v>
+        <v>0.04014972369053282</v>
       </c>
       <c r="D7">
-        <v>0.05827593655970276</v>
+        <v>0.02778805641222704</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3984064753496881</v>
+        <v>0.6695609485166187</v>
       </c>
       <c r="G7">
-        <v>0.3084695098502195</v>
+        <v>0.5121166798278765</v>
       </c>
       <c r="H7">
-        <v>0.2845623877131018</v>
+        <v>0.662344488901411</v>
       </c>
       <c r="I7">
-        <v>0.2346095490755467</v>
+        <v>0.5040137272362202</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8270557718808504</v>
+        <v>0.2773538753179139</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7254113345956661</v>
+        <v>1.305397932999004</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.898611971424998</v>
+        <v>0.3143004319447584</v>
       </c>
       <c r="C8">
-        <v>0.1573563752472609</v>
+        <v>0.04837472890172023</v>
       </c>
       <c r="D8">
-        <v>0.06723471504136569</v>
+        <v>0.03086873150284219</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4231026784466678</v>
+        <v>0.6682668573550714</v>
       </c>
       <c r="G8">
-        <v>0.3214843350048682</v>
+        <v>0.5089021018886086</v>
       </c>
       <c r="H8">
-        <v>0.2824500389515734</v>
+        <v>0.6555956671639294</v>
       </c>
       <c r="I8">
-        <v>0.2287120842632504</v>
+        <v>0.4969519402101703</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.001041564839284</v>
+        <v>0.3299416649520879</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.681079199995132</v>
+        <v>1.286507903637403</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.207247277948767</v>
+        <v>0.4066210584593364</v>
       </c>
       <c r="C9">
-        <v>0.210058697164456</v>
+        <v>0.06439523828022686</v>
       </c>
       <c r="D9">
-        <v>0.08469606310576694</v>
+        <v>0.03681391102919207</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4799187284895368</v>
+        <v>0.6693768658479939</v>
       </c>
       <c r="G9">
-        <v>0.3549478219446769</v>
+        <v>0.5057576858300052</v>
       </c>
       <c r="H9">
-        <v>0.2831205765960192</v>
+        <v>0.6448914853663439</v>
       </c>
       <c r="I9">
-        <v>0.2222035967278195</v>
+        <v>0.4854683594988067</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.344011959342424</v>
+        <v>0.4329794520630514</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6024277459162306</v>
+        <v>1.253326318018303</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.435710287140296</v>
+        <v>0.4744873930038693</v>
       </c>
       <c r="C10">
-        <v>0.2491758777691615</v>
+        <v>0.07609896872961031</v>
       </c>
       <c r="D10">
-        <v>0.09748171688346474</v>
+        <v>0.04112201369503055</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5276687415904249</v>
+        <v>0.6724221181123724</v>
       </c>
       <c r="G10">
-        <v>0.3852360705945586</v>
+        <v>0.5053838687625358</v>
       </c>
       <c r="H10">
-        <v>0.2869313960742659</v>
+        <v>0.6385690382332712</v>
       </c>
       <c r="I10">
-        <v>0.2209247120224447</v>
+        <v>0.4784759091175097</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.598011502564219</v>
+        <v>0.5086132295336085</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5501318519811953</v>
+        <v>1.23130077952462</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.540201501280393</v>
+        <v>0.5053666456857684</v>
       </c>
       <c r="C11">
-        <v>0.2671018304133526</v>
+        <v>0.08140885855658553</v>
       </c>
       <c r="D11">
-        <v>0.1032941395793685</v>
+        <v>0.04306864096704999</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.550907219913249</v>
+        <v>0.674293015719087</v>
       </c>
       <c r="G11">
-        <v>0.4004569706760321</v>
+        <v>0.5056365480019309</v>
       </c>
       <c r="H11">
-        <v>0.2894764700454573</v>
+        <v>0.6360275126153567</v>
       </c>
       <c r="I11">
-        <v>0.2212026812001859</v>
+        <v>0.4756091944844805</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.714224002026896</v>
+        <v>0.5430034088892342</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5276367321914108</v>
+        <v>1.221791477238373</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.579866698195275</v>
+        <v>0.5170603260757503</v>
       </c>
       <c r="C12">
-        <v>0.2739127418335272</v>
+        <v>0.08341750802300396</v>
       </c>
       <c r="D12">
-        <v>0.1054950459742585</v>
+        <v>0.04380385689733401</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5599439200268748</v>
+        <v>0.6750713872840706</v>
       </c>
       <c r="G12">
-        <v>0.406446346548833</v>
+        <v>0.5057931875841319</v>
       </c>
       <c r="H12">
-        <v>0.2905650490674532</v>
+        <v>0.6351132088956888</v>
       </c>
       <c r="I12">
-        <v>0.2214404282869182</v>
+        <v>0.4745688810542461</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.758346052071033</v>
+        <v>0.5560233652712725</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5193139471763359</v>
+        <v>1.218263934464524</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.571319526420297</v>
+        <v>0.514541874897759</v>
       </c>
       <c r="C13">
-        <v>0.2724448141392486</v>
+        <v>0.08298500318450408</v>
       </c>
       <c r="D13">
-        <v>0.1050210402583858</v>
+        <v>0.04364560142440865</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5579868627032241</v>
+        <v>0.6749006408939024</v>
       </c>
       <c r="G13">
-        <v>0.4051460944875629</v>
+        <v>0.505756738785621</v>
       </c>
       <c r="H13">
-        <v>0.2903249177367258</v>
+        <v>0.6353079804906088</v>
       </c>
       <c r="I13">
-        <v>0.2213831855923551</v>
+        <v>0.4747909175890399</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.748838151292773</v>
+        <v>0.5532194206953136</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.521097549777096</v>
+        <v>1.219020387498244</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.543462749517261</v>
+        <v>0.5063286874489279</v>
       </c>
       <c r="C14">
-        <v>0.2676616892608479</v>
+        <v>0.08157415353811359</v>
       </c>
       <c r="D14">
-        <v>0.1034752096037437</v>
+        <v>0.04312916651618082</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5516458175363681</v>
+        <v>0.6743556514258557</v>
       </c>
       <c r="G14">
-        <v>0.4009450918046156</v>
+        <v>0.5056482122423915</v>
       </c>
       <c r="H14">
-        <v>0.2895634781523029</v>
+        <v>0.6359513279431468</v>
       </c>
       <c r="I14">
-        <v>0.2212195327769528</v>
+        <v>0.4755227000133715</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.717851533023463</v>
+        <v>0.5440746290095717</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.526948034515911</v>
+        <v>1.221499792335724</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.526412743128617</v>
+        <v>0.5012979055433675</v>
       </c>
       <c r="C15">
-        <v>0.2647349683639817</v>
+        <v>0.08070969367290104</v>
       </c>
       <c r="D15">
-        <v>0.1025283394903269</v>
+        <v>0.04281258279205957</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5477931573829267</v>
+        <v>0.6740309353113361</v>
       </c>
       <c r="G15">
-        <v>0.3984017878665043</v>
+        <v>0.5055896797457109</v>
       </c>
       <c r="H15">
-        <v>0.2891135793434501</v>
+        <v>0.636351663181415</v>
       </c>
       <c r="I15">
-        <v>0.2211368170516685</v>
+        <v>0.4759768327203737</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.698886885815341</v>
+        <v>0.5384727913018139</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5305573936110939</v>
+        <v>1.223028062951936</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.428894178553378</v>
+        <v>0.4724694445309012</v>
       </c>
       <c r="C16">
-        <v>0.2480073404485097</v>
+        <v>0.07575166508121356</v>
       </c>
       <c r="D16">
-        <v>0.09710181938511653</v>
+        <v>0.040994529110435</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5261821427836963</v>
+        <v>0.6723096284446228</v>
       </c>
       <c r="G16">
-        <v>0.384271898480705</v>
+        <v>0.5053758763248339</v>
       </c>
       <c r="H16">
-        <v>0.2867820810329249</v>
+        <v>0.6387418659677309</v>
       </c>
       <c r="I16">
-        <v>0.2209245903289627</v>
+        <v>0.4786695838426382</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.590431754289256</v>
+        <v>0.5063653807987407</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5516288066844375</v>
+        <v>1.231932506378683</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.369224585023318</v>
+        <v>0.4547853885378572</v>
       </c>
       <c r="C17">
-        <v>0.2377817745643682</v>
+        <v>0.07270640425633701</v>
       </c>
       <c r="D17">
-        <v>0.09377213171057264</v>
+        <v>0.03987581651783501</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5133258754912191</v>
+        <v>0.6713780892169581</v>
       </c>
       <c r="G17">
-        <v>0.3759856656321148</v>
+        <v>0.5053531056545921</v>
       </c>
       <c r="H17">
-        <v>0.2855652388556109</v>
+        <v>0.640293876322346</v>
       </c>
       <c r="I17">
-        <v>0.2210207192785703</v>
+        <v>0.4804020196211738</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.524081929368464</v>
+        <v>0.4866640292147224</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5648935526093979</v>
+        <v>1.237525812517639</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.334956123182621</v>
+        <v>0.4446146341076656</v>
       </c>
       <c r="C18">
-        <v>0.2319124150819505</v>
+        <v>0.07095351754651347</v>
       </c>
       <c r="D18">
-        <v>0.09185659551164349</v>
+        <v>0.03923112716699251</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5060728658024516</v>
+        <v>0.6708879947775372</v>
       </c>
       <c r="G18">
-        <v>0.3713542772011635</v>
+        <v>0.5053797880267581</v>
       </c>
       <c r="H18">
-        <v>0.2849412095421826</v>
+        <v>0.6412180443395812</v>
       </c>
       <c r="I18">
-        <v>0.221156369770295</v>
+        <v>0.4814280393927675</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.485980812364716</v>
+        <v>0.4753308596768591</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5726443301182549</v>
+        <v>1.240790955743599</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.323361863579834</v>
+        <v>0.4411711195556904</v>
       </c>
       <c r="C19">
-        <v>0.2299271190240688</v>
+        <v>0.07035979274053261</v>
       </c>
       <c r="D19">
-        <v>0.09120794895444817</v>
+        <v>0.03901263541438027</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5036408875237655</v>
+        <v>0.6707299043301802</v>
       </c>
       <c r="G19">
-        <v>0.3698087599184845</v>
+        <v>0.5053956492654805</v>
       </c>
       <c r="H19">
-        <v>0.2847427153612188</v>
+        <v>0.6415363605471356</v>
       </c>
       <c r="I19">
-        <v>0.2212158399390844</v>
+        <v>0.4817805083591225</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.47309044281954</v>
+        <v>0.471493407130481</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5752891554969857</v>
+        <v>1.241904723275205</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.375571031818652</v>
+        <v>0.4566678235927668</v>
       </c>
       <c r="C20">
-        <v>0.2388690226178909</v>
+        <v>0.07303071581017662</v>
       </c>
       <c r="D20">
-        <v>0.0941266198530144</v>
+        <v>0.03999503352826395</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5146796631445838</v>
+        <v>0.6714725225958915</v>
       </c>
       <c r="G20">
-        <v>0.3768536878896072</v>
+        <v>0.5053514113912598</v>
       </c>
       <c r="H20">
-        <v>0.2856868648309643</v>
+        <v>0.6401254027669125</v>
       </c>
       <c r="I20">
-        <v>0.2210021069336747</v>
+        <v>0.4802145381376555</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.531138478275409</v>
+        <v>0.4887614282232278</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5634688825020149</v>
+        <v>1.236925425105252</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.551642205768985</v>
+        <v>0.5087410939075028</v>
       </c>
       <c r="C21">
-        <v>0.2690659595570537</v>
+        <v>0.08198861140895985</v>
       </c>
       <c r="D21">
-        <v>0.1039292576217434</v>
+        <v>0.04328090864311207</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5535017546379137</v>
+        <v>0.6745138302976699</v>
       </c>
       <c r="G21">
-        <v>0.4021727563867046</v>
+        <v>0.5056784334775841</v>
       </c>
       <c r="H21">
-        <v>0.2897836765333324</v>
+        <v>0.6357610552933437</v>
       </c>
       <c r="I21">
-        <v>0.2212639324712242</v>
+        <v>0.4753065291729968</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.726949777162474</v>
+        <v>0.5467607580099241</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5252242174720294</v>
+        <v>1.220769537896242</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.667286366208089</v>
+        <v>0.5427759271308616</v>
       </c>
       <c r="C22">
-        <v>0.2889359714617683</v>
+        <v>0.08783090561121298</v>
       </c>
       <c r="D22">
-        <v>0.110335296276844</v>
+        <v>0.04541715307092886</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5802640271079085</v>
+        <v>0.6769089842528757</v>
       </c>
       <c r="G22">
-        <v>0.4200442131176629</v>
+        <v>0.5062475331356069</v>
       </c>
       <c r="H22">
-        <v>0.293192867169509</v>
+        <v>0.6331891656805766</v>
       </c>
       <c r="I22">
-        <v>0.2222118171108463</v>
+        <v>0.4723626406440395</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.855603345258572</v>
+        <v>0.584649754433002</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5013742364984068</v>
+        <v>1.210638727454022</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.605507090995815</v>
+        <v>0.5246109034906112</v>
       </c>
       <c r="C23">
-        <v>0.2783173061513935</v>
+        <v>0.08471389662042839</v>
       </c>
       <c r="D23">
-        <v>0.1069161765938134</v>
+        <v>0.04427804270173397</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5658468298829433</v>
+        <v>0.6755933362718949</v>
       </c>
       <c r="G23">
-        <v>0.4103784312178789</v>
+        <v>0.5059112223916316</v>
       </c>
       <c r="H23">
-        <v>0.2913035399550807</v>
+        <v>0.634536167879773</v>
       </c>
       <c r="I23">
-        <v>0.2216317590742989</v>
+        <v>0.4739096906049554</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.786869683022928</v>
+        <v>0.5644294160951802</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.513995349278261</v>
+        <v>1.21600655158818</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.372701691079726</v>
+        <v>0.4558167869823819</v>
       </c>
       <c r="C24">
-        <v>0.238377448611871</v>
+        <v>0.07288410117556055</v>
       </c>
       <c r="D24">
-        <v>0.09396635970207257</v>
+        <v>0.03994114026987461</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5140671865903883</v>
+        <v>0.6714296876671639</v>
       </c>
       <c r="G24">
-        <v>0.3764608437447379</v>
+        <v>0.5053520534886928</v>
       </c>
       <c r="H24">
-        <v>0.2856316430155061</v>
+        <v>0.6402014703050867</v>
       </c>
       <c r="I24">
-        <v>0.2210102718574802</v>
+        <v>0.4802992050131252</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.527948076008983</v>
+        <v>0.487813214648753</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5641125881594249</v>
+        <v>1.237196706139013</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.123512631980475</v>
+        <v>0.3816379106933994</v>
       </c>
       <c r="C25">
-        <v>0.1957457590961837</v>
+        <v>0.06007293070155129</v>
       </c>
       <c r="D25">
-        <v>0.0799815642363626</v>
+        <v>0.03521599465105396</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4635614930184175</v>
+        <v>0.6686854440352263</v>
       </c>
       <c r="G25">
-        <v>0.3449591033552792</v>
+        <v>0.506269028963807</v>
       </c>
       <c r="H25">
-        <v>0.2823856917050449</v>
+        <v>0.6475164323815932</v>
       </c>
       <c r="I25">
-        <v>0.2233810931939573</v>
+        <v>0.4883215157260317</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.250945877332612</v>
+        <v>0.4051158555210748</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6227744889835698</v>
+        <v>1.261889531070981</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3270505502951835</v>
+        <v>0.9411212987256761</v>
       </c>
       <c r="C2">
-        <v>0.05059594725676675</v>
+        <v>0.1646072622552026</v>
       </c>
       <c r="D2">
-        <v>0.03169699048302732</v>
+        <v>0.06965410605745603</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6681628566188209</v>
+        <v>0.4303303309543125</v>
       </c>
       <c r="G2">
-        <v>0.5082445335594912</v>
+        <v>0.3255179621772228</v>
       </c>
       <c r="H2">
-        <v>0.6539383294400807</v>
+        <v>0.2821899570456878</v>
       </c>
       <c r="I2">
-        <v>0.4951984570817061</v>
+        <v>0.2274416110157169</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3441850223563563</v>
+        <v>1.048271349184319</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.2816510421465</v>
+        <v>0.6696126324823837</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2900796426515626</v>
+        <v>0.817929922476111</v>
       </c>
       <c r="C3">
-        <v>0.04414566512869555</v>
+        <v>0.1435996884129054</v>
       </c>
       <c r="D3">
-        <v>0.02928759997225683</v>
+        <v>0.06262864637992749</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6687410565119478</v>
+        <v>0.4099814438210245</v>
       </c>
       <c r="G3">
-        <v>0.5103910393110809</v>
+        <v>0.3143995637721986</v>
       </c>
       <c r="H3">
-        <v>0.6589369627200412</v>
+        <v>0.2832993802705346</v>
       </c>
       <c r="I3">
-        <v>0.5004632671834415</v>
+        <v>0.2314989237096086</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3028698510027539</v>
+        <v>0.9114053569485634</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.296030060003176</v>
+        <v>0.7034853155889582</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.267393040291978</v>
+        <v>0.7424173457266932</v>
       </c>
       <c r="C4">
-        <v>0.04017159623822408</v>
+        <v>0.1307295045107111</v>
       </c>
       <c r="D4">
-        <v>0.02779628046827298</v>
+        <v>0.05829976555468619</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6695553835644148</v>
+        <v>0.3984675310328356</v>
       </c>
       <c r="G4">
-        <v>0.5121063113227748</v>
+        <v>0.3084998341656586</v>
       </c>
       <c r="H4">
-        <v>0.6623251112328674</v>
+        <v>0.2845541752842919</v>
       </c>
       <c r="I4">
-        <v>0.503993618957022</v>
+        <v>0.2345911778361085</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2774933562772333</v>
+        <v>0.8275165597372904</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.30534558168949</v>
+        <v>0.7252891704247766</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2581520103259152</v>
+        <v>0.7116669629467651</v>
       </c>
       <c r="C5">
-        <v>0.03854875941664204</v>
+        <v>0.1254894871383527</v>
       </c>
       <c r="D5">
-        <v>0.02718558653982228</v>
+        <v>0.05653161150971187</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6700026743331691</v>
+        <v>0.3940092671132263</v>
       </c>
       <c r="G5">
-        <v>0.5129050647813003</v>
+        <v>0.30631641870621</v>
       </c>
       <c r="H5">
-        <v>0.6637860344121265</v>
+        <v>0.2852042431095398</v>
       </c>
       <c r="I5">
-        <v>0.5055070875369267</v>
+        <v>0.2359963583941678</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2671505079258054</v>
+        <v>0.7933557662106523</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.309264127776732</v>
+        <v>0.734420919326535</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2566177974229618</v>
+        <v>0.7065618959833273</v>
       </c>
       <c r="C6">
-        <v>0.03827908617215314</v>
+        <v>0.12461959913486</v>
       </c>
       <c r="D6">
-        <v>0.02708400295964708</v>
+        <v>0.05623775561323896</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6700839177704978</v>
+        <v>0.3932827310158444</v>
       </c>
       <c r="G6">
-        <v>0.5130437187025549</v>
+        <v>0.3059668484002458</v>
       </c>
       <c r="H6">
-        <v>0.6640334655372229</v>
+        <v>0.285320408972467</v>
       </c>
       <c r="I6">
-        <v>0.505762915509905</v>
+        <v>0.2362382763416946</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2654329964992428</v>
+        <v>0.7876845238892258</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.309922191762039</v>
+        <v>0.73595194472081</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.267268395891108</v>
+        <v>0.7420025612171628</v>
       </c>
       <c r="C7">
-        <v>0.04014972369053282</v>
+        <v>0.1306588200198888</v>
       </c>
       <c r="D7">
-        <v>0.02778805641222704</v>
+        <v>0.05827593655970276</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6695609485166187</v>
+        <v>0.3984064753496881</v>
       </c>
       <c r="G7">
-        <v>0.5121166798278765</v>
+        <v>0.3084695098502834</v>
       </c>
       <c r="H7">
-        <v>0.662344488901411</v>
+        <v>0.2845623877131018</v>
       </c>
       <c r="I7">
-        <v>0.5040137272362202</v>
+        <v>0.2346095490755431</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2773538753179139</v>
+        <v>0.8270557718808789</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.305397932999004</v>
+        <v>0.7254113345956146</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3143004319447584</v>
+        <v>0.8986119714250549</v>
       </c>
       <c r="C8">
-        <v>0.04837472890172023</v>
+        <v>0.1573563752471756</v>
       </c>
       <c r="D8">
-        <v>0.03086873150284219</v>
+        <v>0.06723471504129463</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6682668573550714</v>
+        <v>0.423102678446682</v>
       </c>
       <c r="G8">
-        <v>0.5089021018886086</v>
+        <v>0.3214843350048113</v>
       </c>
       <c r="H8">
-        <v>0.6555956671639294</v>
+        <v>0.2824500389515592</v>
       </c>
       <c r="I8">
-        <v>0.4969519402101703</v>
+        <v>0.2287120842632291</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3299416649520879</v>
+        <v>1.001041564839284</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.286507903637403</v>
+        <v>0.681079199995132</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4066210584593364</v>
+        <v>1.207247277948625</v>
       </c>
       <c r="C9">
-        <v>0.06439523828022686</v>
+        <v>0.210058697164385</v>
       </c>
       <c r="D9">
-        <v>0.03681391102919207</v>
+        <v>0.08469606310583089</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6693768658479939</v>
+        <v>0.4799187284895439</v>
       </c>
       <c r="G9">
-        <v>0.5057576858300052</v>
+        <v>0.35494782194462</v>
       </c>
       <c r="H9">
-        <v>0.6448914853663439</v>
+        <v>0.2831205765961329</v>
       </c>
       <c r="I9">
-        <v>0.4854683594988067</v>
+        <v>0.2222035967278373</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4329794520630514</v>
+        <v>1.344011959342595</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.253326318018303</v>
+        <v>0.6024277459162377</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4744873930038693</v>
+        <v>1.435710287140296</v>
       </c>
       <c r="C10">
-        <v>0.07609896872961031</v>
+        <v>0.2491758777690478</v>
       </c>
       <c r="D10">
-        <v>0.04112201369503055</v>
+        <v>0.09748171688350737</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6724221181123724</v>
+        <v>0.5276687415904391</v>
       </c>
       <c r="G10">
-        <v>0.5053838687625358</v>
+        <v>0.3852360705945017</v>
       </c>
       <c r="H10">
-        <v>0.6385690382332712</v>
+        <v>0.2869313960742659</v>
       </c>
       <c r="I10">
-        <v>0.4784759091175097</v>
+        <v>0.2209247120224376</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5086132295336085</v>
+        <v>1.598011502564248</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.23130077952462</v>
+        <v>0.5501318519812308</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5053666456857684</v>
+        <v>1.540201501280393</v>
       </c>
       <c r="C11">
-        <v>0.08140885855658553</v>
+        <v>0.2671018304133383</v>
       </c>
       <c r="D11">
-        <v>0.04306864096704999</v>
+        <v>0.1032941395794751</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.674293015719087</v>
+        <v>0.5509072199132632</v>
       </c>
       <c r="G11">
-        <v>0.5056365480019309</v>
+        <v>0.4004569706761316</v>
       </c>
       <c r="H11">
-        <v>0.6360275126153567</v>
+        <v>0.2894764700454431</v>
       </c>
       <c r="I11">
-        <v>0.4756091944844805</v>
+        <v>0.2212026812001966</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5430034088892342</v>
+        <v>1.714224002026725</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.221791477238373</v>
+        <v>0.5276367321913895</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5170603260757503</v>
+        <v>1.579866698195389</v>
       </c>
       <c r="C12">
-        <v>0.08341750802300396</v>
+        <v>0.2739127418336693</v>
       </c>
       <c r="D12">
-        <v>0.04380385689733401</v>
+        <v>0.1054950459742585</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6750713872840706</v>
+        <v>0.5599439200268819</v>
       </c>
       <c r="G12">
-        <v>0.5057931875841319</v>
+        <v>0.406446346548833</v>
       </c>
       <c r="H12">
-        <v>0.6351132088956888</v>
+        <v>0.2905650490675669</v>
       </c>
       <c r="I12">
-        <v>0.4745688810542461</v>
+        <v>0.2214404282869182</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5560233652712725</v>
+        <v>1.758346052071204</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.218263934464524</v>
+        <v>0.5193139471762862</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.514541874897759</v>
+        <v>1.571319526420297</v>
       </c>
       <c r="C13">
-        <v>0.08298500318450408</v>
+        <v>0.2724448141391775</v>
       </c>
       <c r="D13">
-        <v>0.04364560142440865</v>
+        <v>0.1050210402581655</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6749006408939024</v>
+        <v>0.5579868627031956</v>
       </c>
       <c r="G13">
-        <v>0.505756738785621</v>
+        <v>0.4051460944875203</v>
       </c>
       <c r="H13">
-        <v>0.6353079804906088</v>
+        <v>0.2903249177366121</v>
       </c>
       <c r="I13">
-        <v>0.4747909175890399</v>
+        <v>0.2213831855923658</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5532194206953136</v>
+        <v>1.748838151292716</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.219020387498244</v>
+        <v>0.5210975497771422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5063286874489279</v>
+        <v>1.543462749517118</v>
       </c>
       <c r="C14">
-        <v>0.08157415353811359</v>
+        <v>0.2676616892606773</v>
       </c>
       <c r="D14">
-        <v>0.04312916651618082</v>
+        <v>0.1034752096037082</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6743556514258557</v>
+        <v>0.5516458175363681</v>
       </c>
       <c r="G14">
-        <v>0.5056482122423915</v>
+        <v>0.4009450918044877</v>
       </c>
       <c r="H14">
-        <v>0.6359513279431468</v>
+        <v>0.2895634781523171</v>
       </c>
       <c r="I14">
-        <v>0.4755227000133715</v>
+        <v>0.2212195327769528</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5440746290095717</v>
+        <v>1.717851533023463</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.221499792335724</v>
+        <v>0.5269480345159607</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5012979055433675</v>
+        <v>1.526412743128532</v>
       </c>
       <c r="C15">
-        <v>0.08070969367290104</v>
+        <v>0.2647349683637117</v>
       </c>
       <c r="D15">
-        <v>0.04281258279205957</v>
+        <v>0.1025283394900995</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6740309353113361</v>
+        <v>0.5477931573829196</v>
       </c>
       <c r="G15">
-        <v>0.5055896797457109</v>
+        <v>0.3984017878664332</v>
       </c>
       <c r="H15">
-        <v>0.636351663181415</v>
+        <v>0.2891135793433222</v>
       </c>
       <c r="I15">
-        <v>0.4759768327203737</v>
+        <v>0.2211368170516792</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5384727913018139</v>
+        <v>1.69888688581554</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.223028062951936</v>
+        <v>0.5305573936110868</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4724694445309012</v>
+        <v>1.428894178553378</v>
       </c>
       <c r="C16">
-        <v>0.07575166508121356</v>
+        <v>0.2480073404487371</v>
       </c>
       <c r="D16">
-        <v>0.040994529110435</v>
+        <v>0.09710181938529416</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6723096284446228</v>
+        <v>0.5261821427836821</v>
       </c>
       <c r="G16">
-        <v>0.5053758763248339</v>
+        <v>0.3842718984807476</v>
       </c>
       <c r="H16">
-        <v>0.6387418659677309</v>
+        <v>0.2867820810330244</v>
       </c>
       <c r="I16">
-        <v>0.4786695838426382</v>
+        <v>0.2209245903289627</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5063653807987407</v>
+        <v>1.590431754289256</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.231932506378683</v>
+        <v>0.5516288066844233</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4547853885378572</v>
+        <v>1.369224585023289</v>
       </c>
       <c r="C17">
-        <v>0.07270640425633701</v>
+        <v>0.237781774564624</v>
       </c>
       <c r="D17">
-        <v>0.03987581651783501</v>
+        <v>0.09377213171042342</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6713780892169581</v>
+        <v>0.513325875491212</v>
       </c>
       <c r="G17">
-        <v>0.5053531056545921</v>
+        <v>0.3759856656321148</v>
       </c>
       <c r="H17">
-        <v>0.640293876322346</v>
+        <v>0.2855652388556109</v>
       </c>
       <c r="I17">
-        <v>0.4804020196211738</v>
+        <v>0.2210207192785703</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4866640292147224</v>
+        <v>1.524081929368464</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.237525812517639</v>
+        <v>0.5648935526093872</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4446146341076656</v>
+        <v>1.334956123182593</v>
       </c>
       <c r="C18">
-        <v>0.07095351754651347</v>
+        <v>0.2319124150820926</v>
       </c>
       <c r="D18">
-        <v>0.03923112716699251</v>
+        <v>0.09185659551142322</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6708879947775372</v>
+        <v>0.5060728658024516</v>
       </c>
       <c r="G18">
-        <v>0.5053797880267581</v>
+        <v>0.3713542772011778</v>
       </c>
       <c r="H18">
-        <v>0.6412180443395812</v>
+        <v>0.2849412095421826</v>
       </c>
       <c r="I18">
-        <v>0.4814280393927675</v>
+        <v>0.2211563697702985</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4753308596768591</v>
+        <v>1.485980812364772</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.240790955743599</v>
+        <v>0.5726443301182549</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4411711195556904</v>
+        <v>1.32336186357972</v>
       </c>
       <c r="C19">
-        <v>0.07035979274053261</v>
+        <v>0.2299271190237846</v>
       </c>
       <c r="D19">
-        <v>0.03901263541438027</v>
+        <v>0.09120794895454054</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6707299043301802</v>
+        <v>0.5036408875237797</v>
       </c>
       <c r="G19">
-        <v>0.5053956492654805</v>
+        <v>0.3698087599184703</v>
       </c>
       <c r="H19">
-        <v>0.6415363605471356</v>
+        <v>0.2847427153613324</v>
       </c>
       <c r="I19">
-        <v>0.4817805083591225</v>
+        <v>0.2212158399390844</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.471493407130481</v>
+        <v>1.473090442819569</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.241904723275205</v>
+        <v>0.5752891554969715</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4566678235927668</v>
+        <v>1.375571031818623</v>
       </c>
       <c r="C20">
-        <v>0.07303071581017662</v>
+        <v>0.2388690226177488</v>
       </c>
       <c r="D20">
-        <v>0.03999503352826395</v>
+        <v>0.09412661985295756</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6714725225958915</v>
+        <v>0.5146796631445838</v>
       </c>
       <c r="G20">
-        <v>0.5053514113912598</v>
+        <v>0.3768536878895787</v>
       </c>
       <c r="H20">
-        <v>0.6401254027669125</v>
+        <v>0.2856868648309643</v>
       </c>
       <c r="I20">
-        <v>0.4802145381376555</v>
+        <v>0.2210021069336676</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4887614282232278</v>
+        <v>1.531138478275352</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.236925425105252</v>
+        <v>0.5634688825019971</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5087410939075028</v>
+        <v>1.551642205769241</v>
       </c>
       <c r="C21">
-        <v>0.08198861140895985</v>
+        <v>0.2690659595569826</v>
       </c>
       <c r="D21">
-        <v>0.04328090864311207</v>
+        <v>0.1039292576216297</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6745138302976699</v>
+        <v>0.5535017546379279</v>
       </c>
       <c r="G21">
-        <v>0.5056784334775841</v>
+        <v>0.4021727563867614</v>
       </c>
       <c r="H21">
-        <v>0.6357610552933437</v>
+        <v>0.2897836765334461</v>
       </c>
       <c r="I21">
-        <v>0.4753065291729968</v>
+        <v>0.2212639324712242</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5467607580099241</v>
+        <v>1.726949777162474</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.220769537896242</v>
+        <v>0.5252242174720863</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5427759271308616</v>
+        <v>1.667286366208089</v>
       </c>
       <c r="C22">
-        <v>0.08783090561121298</v>
+        <v>0.2889359714618536</v>
       </c>
       <c r="D22">
-        <v>0.04541715307092886</v>
+        <v>0.1103352962767445</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6769089842528757</v>
+        <v>0.5802640271079085</v>
       </c>
       <c r="G22">
-        <v>0.5062475331356069</v>
+        <v>0.4200442131177198</v>
       </c>
       <c r="H22">
-        <v>0.6331891656805766</v>
+        <v>0.293192867169509</v>
       </c>
       <c r="I22">
-        <v>0.4723626406440395</v>
+        <v>0.2222118171108569</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.584649754433002</v>
+        <v>1.855603345258544</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.210638727454022</v>
+        <v>0.5013742364984068</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5246109034906112</v>
+        <v>1.605507090995786</v>
       </c>
       <c r="C23">
-        <v>0.08471389662042839</v>
+        <v>0.2783173061509956</v>
       </c>
       <c r="D23">
-        <v>0.04427804270173397</v>
+        <v>0.1069161765940549</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6755933362718949</v>
+        <v>0.5658468298829291</v>
       </c>
       <c r="G23">
-        <v>0.5059112223916316</v>
+        <v>0.4103784312178362</v>
       </c>
       <c r="H23">
-        <v>0.634536167879773</v>
+        <v>0.2913035399550807</v>
       </c>
       <c r="I23">
-        <v>0.4739096906049554</v>
+        <v>0.2216317590742918</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5644294160951802</v>
+        <v>1.7868696830229</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.21600655158818</v>
+        <v>0.5139953492782396</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4558167869823819</v>
+        <v>1.372701691079726</v>
       </c>
       <c r="C24">
-        <v>0.07288410117556055</v>
+        <v>0.2383774486116295</v>
       </c>
       <c r="D24">
-        <v>0.03994114026987461</v>
+        <v>0.09396635970217204</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6714296876671639</v>
+        <v>0.5140671865904167</v>
       </c>
       <c r="G24">
-        <v>0.5053520534886928</v>
+        <v>0.3764608437447095</v>
       </c>
       <c r="H24">
-        <v>0.6402014703050867</v>
+        <v>0.2856316430155061</v>
       </c>
       <c r="I24">
-        <v>0.4802992050131252</v>
+        <v>0.2210102718574802</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.487813214648753</v>
+        <v>1.527948076008954</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.237196706139013</v>
+        <v>0.5641125881595208</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3816379106933994</v>
+        <v>1.123512631980532</v>
       </c>
       <c r="C25">
-        <v>0.06007293070155129</v>
+        <v>0.1957457590964964</v>
       </c>
       <c r="D25">
-        <v>0.03521599465105396</v>
+        <v>0.0799815642363626</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6686854440352263</v>
+        <v>0.4635614930184317</v>
       </c>
       <c r="G25">
-        <v>0.506269028963807</v>
+        <v>0.3449591033552792</v>
       </c>
       <c r="H25">
-        <v>0.6475164323815932</v>
+        <v>0.2823856917050449</v>
       </c>
       <c r="I25">
-        <v>0.4883215157260317</v>
+        <v>0.2233810931939573</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4051158555210748</v>
+        <v>1.250945877332612</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.261889531070981</v>
+        <v>0.6227744889835023</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9411212987256761</v>
+        <v>1.066886574382153</v>
       </c>
       <c r="C2">
-        <v>0.1646072622552026</v>
+        <v>0.1773405740522058</v>
       </c>
       <c r="D2">
-        <v>0.06965410605745603</v>
+        <v>0.08173680382117254</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4303303309543125</v>
+        <v>0.3917000065687049</v>
       </c>
       <c r="G2">
-        <v>0.3255179621772228</v>
+        <v>0.2899809189736899</v>
       </c>
       <c r="H2">
-        <v>0.2821899570456878</v>
+        <v>0.0006808797196862226</v>
       </c>
       <c r="I2">
-        <v>0.2274416110157169</v>
+        <v>0.000721844872387134</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2720094778973774</v>
       </c>
       <c r="K2">
-        <v>1.048271349184319</v>
+        <v>0.3291297593801019</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8560449843454592</v>
       </c>
       <c r="N2">
-        <v>0.6696126324823837</v>
+        <v>0.4362238407158401</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.7841779687085371</v>
+      </c>
+      <c r="Q2">
+        <v>1.132470458513538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.817929922476111</v>
+        <v>0.9294911627281692</v>
       </c>
       <c r="C3">
-        <v>0.1435996884129054</v>
+        <v>0.1722248772924573</v>
       </c>
       <c r="D3">
-        <v>0.06262864637992749</v>
+        <v>0.07259776489942737</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4099814438210245</v>
+        <v>0.3729095965423141</v>
       </c>
       <c r="G3">
-        <v>0.3143995637721986</v>
+        <v>0.2796992094621231</v>
       </c>
       <c r="H3">
-        <v>0.2832993802705346</v>
+        <v>0.001353502168058629</v>
       </c>
       <c r="I3">
-        <v>0.2314989237096086</v>
+        <v>0.001132775421549326</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2707740382266763</v>
       </c>
       <c r="K3">
-        <v>0.9114053569485634</v>
+        <v>0.326829804470929</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.749885363547719</v>
       </c>
       <c r="N3">
-        <v>0.7034853155889582</v>
+        <v>0.3860404836005245</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8063343614850922</v>
+      </c>
+      <c r="Q3">
+        <v>1.107844011863577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7424173457266932</v>
+        <v>0.8447086911779991</v>
       </c>
       <c r="C4">
-        <v>0.1307295045107111</v>
+        <v>0.1690370060575148</v>
       </c>
       <c r="D4">
-        <v>0.05829976555468619</v>
+        <v>0.06698386945309664</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3984675310328356</v>
+        <v>0.3617167741873786</v>
       </c>
       <c r="G4">
-        <v>0.3084998341656586</v>
+        <v>0.273650014751837</v>
       </c>
       <c r="H4">
-        <v>0.2845541752842919</v>
+        <v>0.001902632342264066</v>
       </c>
       <c r="I4">
-        <v>0.2345911778361085</v>
+        <v>0.001527412543395723</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2702116331977393</v>
       </c>
       <c r="K4">
-        <v>0.8275165597372904</v>
+        <v>0.3255766108785672</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6845479502471079</v>
       </c>
       <c r="N4">
-        <v>0.7252891704247766</v>
+        <v>0.3551873471893714</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8204793478630492</v>
+      </c>
+      <c r="Q4">
+        <v>1.093686589365049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7116669629467651</v>
+        <v>0.8093581074790848</v>
       </c>
       <c r="C5">
-        <v>0.1254894871383527</v>
+        <v>0.1677801500963163</v>
       </c>
       <c r="D5">
-        <v>0.05653161150971187</v>
+        <v>0.06474249035306201</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3940092671132263</v>
+        <v>0.3569695529955439</v>
       </c>
       <c r="G5">
-        <v>0.30631641870621</v>
+        <v>0.2709905420551664</v>
       </c>
       <c r="H5">
-        <v>0.2852042431095398</v>
+        <v>0.002161004604265937</v>
       </c>
       <c r="I5">
-        <v>0.2359963583941678</v>
+        <v>0.001794012088103258</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2698966395899589</v>
       </c>
       <c r="K5">
-        <v>0.7933557662106523</v>
+        <v>0.3248314216339878</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6579144452858259</v>
       </c>
       <c r="N5">
-        <v>0.734420919326535</v>
+        <v>0.342589709662505</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8264110073993489</v>
+      </c>
+      <c r="Q5">
+        <v>1.087323635849572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7065618959833273</v>
+        <v>0.8026317164507759</v>
       </c>
       <c r="C6">
-        <v>0.12461959913486</v>
+        <v>0.1676393065846504</v>
       </c>
       <c r="D6">
-        <v>0.05623775561323896</v>
+        <v>0.0644284367746053</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3932827310158444</v>
+        <v>0.3558571472557688</v>
       </c>
       <c r="G6">
-        <v>0.3059668484002458</v>
+        <v>0.2702375351985893</v>
       </c>
       <c r="H6">
-        <v>0.285320408972467</v>
+        <v>0.002207945198290706</v>
       </c>
       <c r="I6">
-        <v>0.2362382763416946</v>
+        <v>0.001934921919609423</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2696834807257673</v>
       </c>
       <c r="K6">
-        <v>0.7876845238892258</v>
+        <v>0.3243760551145947</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6535308506583846</v>
       </c>
       <c r="N6">
-        <v>0.73595194472081</v>
+        <v>0.3404818250554484</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.827447553529618</v>
+      </c>
+      <c r="Q6">
+        <v>1.085269693740244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7420025612171628</v>
+        <v>0.8419031145629674</v>
       </c>
       <c r="C7">
-        <v>0.1306588200198888</v>
+        <v>0.1692092619876462</v>
       </c>
       <c r="D7">
-        <v>0.05827593655970276</v>
+        <v>0.06711316564432224</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3984064753496881</v>
+        <v>0.3607537023643204</v>
       </c>
       <c r="G7">
-        <v>0.3084695098502834</v>
+        <v>0.2727532905576311</v>
       </c>
       <c r="H7">
-        <v>0.2845623877131018</v>
+        <v>0.001911134931202652</v>
       </c>
       <c r="I7">
-        <v>0.2346095490755431</v>
+        <v>0.001774001263846969</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2697608133071725</v>
       </c>
       <c r="K7">
-        <v>0.8270557718808789</v>
+        <v>0.3246552313352815</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6843024302985015</v>
       </c>
       <c r="N7">
-        <v>0.7254113345956146</v>
+        <v>0.3549762597789368</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8206887623953421</v>
+      </c>
+      <c r="Q7">
+        <v>1.090839947701767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8986119714250549</v>
+        <v>1.016487000584362</v>
       </c>
       <c r="C8">
-        <v>0.1573563752471756</v>
+        <v>0.1758475884463451</v>
       </c>
       <c r="D8">
-        <v>0.06723471504129463</v>
+        <v>0.078799310862955</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.423102678446682</v>
+        <v>0.3839586247392077</v>
       </c>
       <c r="G8">
-        <v>0.3214843350048113</v>
+        <v>0.2852421791822692</v>
       </c>
       <c r="H8">
-        <v>0.2824500389515592</v>
+        <v>0.0008880964885702447</v>
       </c>
       <c r="I8">
-        <v>0.2287120842632291</v>
+        <v>0.001125865795428282</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2709551098429372</v>
       </c>
       <c r="K8">
-        <v>1.001041564839284</v>
+        <v>0.3271032394241651</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8196223003986631</v>
       </c>
       <c r="N8">
-        <v>0.681079199995132</v>
+        <v>0.4188749164935075</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.7919231962285593</v>
+      </c>
+      <c r="Q8">
+        <v>1.120133622310917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.207247277948625</v>
+        <v>1.35977495067803</v>
       </c>
       <c r="C9">
-        <v>0.210058697164385</v>
+        <v>0.1881884554796542</v>
       </c>
       <c r="D9">
-        <v>0.08469606310583089</v>
+        <v>0.1014330630947242</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4799187284895439</v>
+        <v>0.4339803421794031</v>
       </c>
       <c r="G9">
-        <v>0.35494782194462</v>
+        <v>0.3135039792640626</v>
       </c>
       <c r="H9">
-        <v>0.2831205765961329</v>
+        <v>1.990865238088446E-05</v>
       </c>
       <c r="I9">
-        <v>0.2222035967278373</v>
+        <v>0.0006797207235305081</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2757042196700539</v>
       </c>
       <c r="K9">
-        <v>1.344011959342595</v>
+        <v>0.3348408269521386</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.083701254123014</v>
       </c>
       <c r="N9">
-        <v>0.6024277459162377</v>
+        <v>0.5440334773513058</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.739635504468005</v>
+      </c>
+      <c r="Q9">
+        <v>1.190561616268553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.435710287140296</v>
+        <v>1.597149843338116</v>
       </c>
       <c r="C10">
-        <v>0.2491758777690478</v>
+        <v>0.1985205297619217</v>
       </c>
       <c r="D10">
-        <v>0.09748171688350737</v>
+        <v>0.1190048044645096</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5276687415904391</v>
+        <v>0.4679948490035173</v>
       </c>
       <c r="G10">
-        <v>0.3852360705945017</v>
+        <v>0.3313010778456729</v>
       </c>
       <c r="H10">
-        <v>0.2869313960742659</v>
+        <v>0.0003205174361626817</v>
       </c>
       <c r="I10">
-        <v>0.2209247120224376</v>
+        <v>0.001279216188518006</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2779685709863031</v>
       </c>
       <c r="K10">
-        <v>1.598011502564248</v>
+        <v>0.3367244086712056</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.277880476343768</v>
       </c>
       <c r="N10">
-        <v>0.5501318519812308</v>
+        <v>0.6058441297483625</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7056778267601302</v>
+      </c>
+      <c r="Q10">
+        <v>1.233416377654919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.540201501280393</v>
+        <v>1.598650762224992</v>
       </c>
       <c r="C11">
-        <v>0.2671018304133383</v>
+        <v>0.2193920042401842</v>
       </c>
       <c r="D11">
-        <v>0.1032941395794751</v>
+        <v>0.1347045224673309</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5509072199132632</v>
+        <v>0.445236854097395</v>
       </c>
       <c r="G11">
-        <v>0.4004569706761316</v>
+        <v>0.3034247150426665</v>
       </c>
       <c r="H11">
-        <v>0.2894764700454431</v>
+        <v>0.01882122092323257</v>
       </c>
       <c r="I11">
-        <v>0.2212026812001966</v>
+        <v>0.001954761744427103</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2607836488821818</v>
       </c>
       <c r="K11">
-        <v>1.714224002026725</v>
+        <v>0.3011931114405186</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.37110516329804</v>
       </c>
       <c r="N11">
-        <v>0.5276367321913895</v>
+        <v>0.4002306262330961</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7078127037989397</v>
+      </c>
+      <c r="Q11">
+        <v>1.13848344843592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.579866698195389</v>
+        <v>1.553118502757144</v>
       </c>
       <c r="C12">
-        <v>0.2739127418336693</v>
+        <v>0.2402040387455457</v>
       </c>
       <c r="D12">
-        <v>0.1054950459742585</v>
+        <v>0.1443822247137234</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5599439200268819</v>
+        <v>0.4202200923910766</v>
       </c>
       <c r="G12">
-        <v>0.406446346548833</v>
+        <v>0.2780499932548537</v>
       </c>
       <c r="H12">
-        <v>0.2905650490675669</v>
+        <v>0.05744193649912432</v>
       </c>
       <c r="I12">
-        <v>0.2214404282869182</v>
+        <v>0.001962263293204813</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2466280854058027</v>
       </c>
       <c r="K12">
-        <v>1.758346052071204</v>
+        <v>0.2739538330181404</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.408872992347654</v>
       </c>
       <c r="N12">
-        <v>0.5193139471762862</v>
+        <v>0.2514087667954072</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7209247563464984</v>
+      </c>
+      <c r="Q12">
+        <v>1.055099485413521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.571319526420297</v>
+        <v>1.465424687328181</v>
       </c>
       <c r="C13">
-        <v>0.2724448141391775</v>
+        <v>0.2620910575557929</v>
       </c>
       <c r="D13">
-        <v>0.1050210402581655</v>
+        <v>0.1501390822096624</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5579868627031956</v>
+        <v>0.3905112568707949</v>
       </c>
       <c r="G13">
-        <v>0.4051460944875203</v>
+        <v>0.2517130266940484</v>
       </c>
       <c r="H13">
-        <v>0.2903249177366121</v>
+        <v>0.1131458376347325</v>
       </c>
       <c r="I13">
-        <v>0.2213831855923658</v>
+        <v>0.001804624938315236</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2332234730781906</v>
       </c>
       <c r="K13">
-        <v>1.748838151292716</v>
+        <v>0.2500315326838383</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.40598104451476</v>
       </c>
       <c r="N13">
-        <v>0.5210975497771422</v>
+        <v>0.1378470229274669</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7426994110864626</v>
+      </c>
+      <c r="Q13">
+        <v>0.971174832366259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.543462749517118</v>
+        <v>1.38480189629928</v>
       </c>
       <c r="C14">
-        <v>0.2676616892606773</v>
+        <v>0.2786216987354919</v>
       </c>
       <c r="D14">
-        <v>0.1034752096037082</v>
+        <v>0.1524463025559015</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5516458175363681</v>
+        <v>0.367530607267291</v>
       </c>
       <c r="G14">
-        <v>0.4009450918044877</v>
+        <v>0.2328545093088508</v>
       </c>
       <c r="H14">
-        <v>0.2895634781523171</v>
+        <v>0.1624716822179266</v>
       </c>
       <c r="I14">
-        <v>0.2212195327769528</v>
+        <v>0.001713474028085749</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2241558899502678</v>
       </c>
       <c r="K14">
-        <v>1.717851533023463</v>
+        <v>0.2349256091987506</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.385563137807196</v>
       </c>
       <c r="N14">
-        <v>0.5269480345159607</v>
+        <v>0.07983044104264536</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7622736495555458</v>
+      </c>
+      <c r="Q14">
+        <v>0.9121588895486354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.526412743128532</v>
+        <v>1.355526161978645</v>
       </c>
       <c r="C15">
-        <v>0.2647349683637117</v>
+        <v>0.282402120114611</v>
       </c>
       <c r="D15">
-        <v>0.1025283394900995</v>
+        <v>0.1521809478890646</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5477931573829196</v>
+        <v>0.3606611059254803</v>
       </c>
       <c r="G15">
-        <v>0.3984017878664332</v>
+        <v>0.2277394132120705</v>
       </c>
       <c r="H15">
-        <v>0.2891135793433222</v>
+        <v>0.1749740745371327</v>
       </c>
       <c r="I15">
-        <v>0.2211368170516792</v>
+        <v>0.001772955869765447</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2219581475498558</v>
       </c>
       <c r="K15">
-        <v>1.69888688581554</v>
+        <v>0.2315152986979214</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.371914318687061</v>
       </c>
       <c r="N15">
-        <v>0.5305573936110868</v>
+        <v>0.06842855479561294</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7684643954886639</v>
+      </c>
+      <c r="Q15">
+        <v>0.8966843558672082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.428894178553378</v>
+        <v>1.272233985641577</v>
       </c>
       <c r="C16">
-        <v>0.2480073404487371</v>
+        <v>0.2728222628901165</v>
       </c>
       <c r="D16">
-        <v>0.09710181938529416</v>
+        <v>0.1432998632382407</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5261821427836821</v>
+        <v>0.3515441677414302</v>
       </c>
       <c r="G16">
-        <v>0.3842718984807476</v>
+        <v>0.2249782329803196</v>
       </c>
       <c r="H16">
-        <v>0.2867820810330244</v>
+        <v>0.1621994083280924</v>
       </c>
       <c r="I16">
-        <v>0.2209245903289627</v>
+        <v>0.001668866417126935</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2233448305646348</v>
       </c>
       <c r="K16">
-        <v>1.590431754289256</v>
+        <v>0.2351009843430614</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.288633326970853</v>
       </c>
       <c r="N16">
-        <v>0.5516288066844233</v>
+        <v>0.06816718002477984</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.7763081640288618</v>
+      </c>
+      <c r="Q16">
+        <v>0.8935741764699685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.369224585023289</v>
+        <v>1.250758228094412</v>
       </c>
       <c r="C17">
-        <v>0.237781774564624</v>
+        <v>0.2563640822725972</v>
       </c>
       <c r="D17">
-        <v>0.09377213171042342</v>
+        <v>0.1352923632537681</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.513325875491212</v>
+        <v>0.3567600962915733</v>
       </c>
       <c r="G17">
-        <v>0.3759856656321148</v>
+        <v>0.2328136687920477</v>
       </c>
       <c r="H17">
-        <v>0.2855652388556109</v>
+        <v>0.1243967571026303</v>
       </c>
       <c r="I17">
-        <v>0.2210207192785703</v>
+        <v>0.00166715493848546</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2292309759023254</v>
       </c>
       <c r="K17">
-        <v>1.524081929368464</v>
+        <v>0.245700461472758</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.235763967319485</v>
       </c>
       <c r="N17">
-        <v>0.5648935526093872</v>
+        <v>0.09486997564700772</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.7720784722257648</v>
+      </c>
+      <c r="Q17">
+        <v>0.9224134991452786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.334956123182593</v>
+        <v>1.282029566848081</v>
       </c>
       <c r="C18">
-        <v>0.2319124150820926</v>
+        <v>0.2341481396184975</v>
       </c>
       <c r="D18">
-        <v>0.09185659551142322</v>
+        <v>0.1271089826772425</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5060728658024516</v>
+        <v>0.3756342795039629</v>
       </c>
       <c r="G18">
-        <v>0.3713542772011778</v>
+        <v>0.2516188334404461</v>
       </c>
       <c r="H18">
-        <v>0.2849412095421826</v>
+        <v>0.07153706343995481</v>
       </c>
       <c r="I18">
-        <v>0.2211563697702985</v>
+        <v>0.00143933589209766</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2400812723443906</v>
       </c>
       <c r="K18">
-        <v>1.485980812364772</v>
+        <v>0.2650340638083222</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.202920581998001</v>
       </c>
       <c r="N18">
-        <v>0.5726443301182549</v>
+        <v>0.1666178760526194</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.7584477372620171</v>
+      </c>
+      <c r="Q18">
+        <v>0.984950303397099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.32336186357972</v>
+        <v>1.34994125907528</v>
       </c>
       <c r="C19">
-        <v>0.2299271190237846</v>
+        <v>0.2139777557732359</v>
       </c>
       <c r="D19">
-        <v>0.09120794895454054</v>
+        <v>0.1199129611296428</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5036408875237797</v>
+        <v>0.402976966338457</v>
       </c>
       <c r="G19">
-        <v>0.3698087599184703</v>
+        <v>0.2772751260467672</v>
       </c>
       <c r="H19">
-        <v>0.2847427153613324</v>
+        <v>0.02624586140531449</v>
       </c>
       <c r="I19">
-        <v>0.2212158399390844</v>
+        <v>0.001576313033043064</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2537048777658768</v>
       </c>
       <c r="K19">
-        <v>1.473090442819569</v>
+        <v>0.290287045283943</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.188843851759941</v>
       </c>
       <c r="N19">
-        <v>0.5752891554969715</v>
+        <v>0.2979392855096705</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.742207625461905</v>
+      </c>
+      <c r="Q19">
+        <v>1.067861897718288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.375571031818623</v>
+        <v>1.527024443321096</v>
       </c>
       <c r="C20">
-        <v>0.2388690226177488</v>
+        <v>0.1965969333151634</v>
       </c>
       <c r="D20">
-        <v>0.09412661985295756</v>
+        <v>0.114935947228247</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5146796631445838</v>
+        <v>0.4559494418614918</v>
       </c>
       <c r="G20">
-        <v>0.3768536878895787</v>
+        <v>0.3236893663904112</v>
       </c>
       <c r="H20">
-        <v>0.2856868648309643</v>
+        <v>0.0001698530703553303</v>
       </c>
       <c r="I20">
-        <v>0.2210021069336676</v>
+        <v>0.001823373999767952</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2758526509413741</v>
       </c>
       <c r="K20">
-        <v>1.531138478275352</v>
+        <v>0.3332218765589126</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.227293112432392</v>
       </c>
       <c r="N20">
-        <v>0.5634688825019971</v>
+        <v>0.5882350052931855</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7152169259477681</v>
+      </c>
+      <c r="Q20">
+        <v>1.212749171457205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.551642205769241</v>
+        <v>1.728275640313427</v>
       </c>
       <c r="C21">
-        <v>0.2690659595569826</v>
+        <v>0.202380757732378</v>
       </c>
       <c r="D21">
-        <v>0.1039292576216297</v>
+        <v>0.1270715122280563</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5535017546379279</v>
+        <v>0.4900531668487105</v>
       </c>
       <c r="G21">
-        <v>0.4021727563867614</v>
+        <v>0.3448316047275028</v>
       </c>
       <c r="H21">
-        <v>0.2897836765334461</v>
+        <v>0.000453915446400277</v>
       </c>
       <c r="I21">
-        <v>0.2212639324712242</v>
+        <v>0.002430389460928772</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.281466954385678</v>
       </c>
       <c r="K21">
-        <v>1.726949777162474</v>
+        <v>0.3421288858336311</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.37533049442294</v>
       </c>
       <c r="N21">
-        <v>0.5252242174720863</v>
+        <v>0.6823587988766207</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.6878618378569179</v>
+      </c>
+      <c r="Q21">
+        <v>1.269615705801272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.667286366208089</v>
+        <v>1.856660899142923</v>
       </c>
       <c r="C22">
-        <v>0.2889359714618536</v>
+        <v>0.2065318304030264</v>
       </c>
       <c r="D22">
-        <v>0.1103352962767445</v>
+        <v>0.1352239070698431</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5802640271079085</v>
+        <v>0.5117563674958348</v>
       </c>
       <c r="G22">
-        <v>0.4200442131177198</v>
+        <v>0.3580174944474095</v>
       </c>
       <c r="H22">
-        <v>0.293192867169509</v>
+        <v>0.0008798254178974396</v>
       </c>
       <c r="I22">
-        <v>0.2222118171108569</v>
+        <v>0.002696238095695414</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2848642654318638</v>
       </c>
       <c r="K22">
-        <v>1.855603345258544</v>
+        <v>0.3471380543716478</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.472206089465686</v>
       </c>
       <c r="N22">
-        <v>0.5013742364984068</v>
+        <v>0.7286254801793177</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.6709473067627769</v>
+      </c>
+      <c r="Q22">
+        <v>1.304865753673596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.605507090995786</v>
+        <v>1.791007037649592</v>
       </c>
       <c r="C23">
-        <v>0.2783173061509956</v>
+        <v>0.2040429369178867</v>
       </c>
       <c r="D23">
-        <v>0.1069161765940549</v>
+        <v>0.1306747069319272</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5658468298829291</v>
+        <v>0.5011850951195527</v>
       </c>
       <c r="G23">
-        <v>0.4103784312178362</v>
+        <v>0.3519513449790281</v>
       </c>
       <c r="H23">
-        <v>0.2913035399550807</v>
+        <v>0.0006387670748855268</v>
       </c>
       <c r="I23">
-        <v>0.2216317590742918</v>
+        <v>0.002247866459799575</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2835426810239312</v>
       </c>
       <c r="K23">
-        <v>1.7868696830229</v>
+        <v>0.3454955102714727</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.420366544342926</v>
       </c>
       <c r="N23">
-        <v>0.5139953492782396</v>
+        <v>0.703969894591765</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.6796013229029114</v>
+      </c>
+      <c r="Q23">
+        <v>1.289141726544727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.372701691079726</v>
+        <v>1.537339181714344</v>
       </c>
       <c r="C24">
-        <v>0.2383774486116295</v>
+        <v>0.1950500307474599</v>
       </c>
       <c r="D24">
-        <v>0.09396635970217204</v>
+        <v>0.1137908716162741</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5140671865904167</v>
+        <v>0.4604378021515032</v>
       </c>
       <c r="G24">
-        <v>0.3764608437447095</v>
+        <v>0.3281406468773724</v>
       </c>
       <c r="H24">
-        <v>0.2856316430155061</v>
+        <v>6.661318607004141E-05</v>
       </c>
       <c r="I24">
-        <v>0.2210102718574802</v>
+        <v>0.001351749435804628</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2781981556912783</v>
       </c>
       <c r="K24">
-        <v>1.527948076008954</v>
+        <v>0.3380378056152828</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.224253473759887</v>
       </c>
       <c r="N24">
-        <v>0.5641125881595208</v>
+        <v>0.6106371352466624</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7140953762498157</v>
+      </c>
+      <c r="Q24">
+        <v>1.227095093197562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.123512631980532</v>
+        <v>1.26295051095741</v>
       </c>
       <c r="C25">
-        <v>0.1957457590964964</v>
+        <v>0.1852614058675428</v>
       </c>
       <c r="D25">
-        <v>0.0799815642363626</v>
+        <v>0.09560105857610068</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4635614930184317</v>
+        <v>0.4184889779438308</v>
       </c>
       <c r="G25">
-        <v>0.3449591033552792</v>
+        <v>0.304050179949904</v>
       </c>
       <c r="H25">
-        <v>0.2823856917050449</v>
+        <v>0.000125305208029669</v>
       </c>
       <c r="I25">
-        <v>0.2233810931939573</v>
+        <v>0.001080379206205961</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2734429438973578</v>
       </c>
       <c r="K25">
-        <v>1.250945877332612</v>
+        <v>0.3309727926398836</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.012558612015766</v>
       </c>
       <c r="N25">
-        <v>0.6227744889835023</v>
+        <v>0.5101127188431462</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7536675297560613</v>
+      </c>
+      <c r="Q25">
+        <v>1.165635585116647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.066886574382153</v>
+        <v>1.026654735999585</v>
       </c>
       <c r="C2">
-        <v>0.1773405740522058</v>
+        <v>0.1640649946687702</v>
       </c>
       <c r="D2">
-        <v>0.08173680382117254</v>
+        <v>0.08422687396964079</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3917000065687049</v>
+        <v>0.3724329299169682</v>
       </c>
       <c r="G2">
-        <v>0.2899809189736899</v>
+        <v>0.2536974748234755</v>
       </c>
       <c r="H2">
-        <v>0.0006808797196862226</v>
+        <v>0.0004894537638107099</v>
       </c>
       <c r="I2">
-        <v>0.000721844872387134</v>
+        <v>0.0006500157008364482</v>
       </c>
       <c r="J2">
-        <v>0.2720094778973774</v>
+        <v>0.2951576825111886</v>
       </c>
       <c r="K2">
-        <v>0.3291297593801019</v>
+        <v>0.3035024223116558</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1568916790103785</v>
       </c>
       <c r="M2">
-        <v>0.8560449843454592</v>
+        <v>0.07878605983183107</v>
       </c>
       <c r="N2">
-        <v>0.4362238407158401</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8588917584685021</v>
       </c>
       <c r="P2">
-        <v>0.7841779687085371</v>
+        <v>0.4391451548067238</v>
       </c>
       <c r="Q2">
-        <v>1.132470458513538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7742716061927908</v>
+      </c>
+      <c r="S2">
+        <v>1.069532046813251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9294911627281692</v>
+        <v>0.8980073061986502</v>
       </c>
       <c r="C3">
-        <v>0.1722248772924573</v>
+        <v>0.1572855089631027</v>
       </c>
       <c r="D3">
-        <v>0.07259776489942737</v>
+        <v>0.07438908000962385</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3729095965423141</v>
+        <v>0.3561737202101369</v>
       </c>
       <c r="G3">
-        <v>0.2796992094621231</v>
+        <v>0.2462158825485119</v>
       </c>
       <c r="H3">
-        <v>0.001353502168058629</v>
+        <v>0.00103582116422607</v>
       </c>
       <c r="I3">
-        <v>0.001132775421549326</v>
+        <v>0.0008934708178984785</v>
       </c>
       <c r="J3">
-        <v>0.2707740382266763</v>
+        <v>0.2931196925479256</v>
       </c>
       <c r="K3">
-        <v>0.326829804470929</v>
+        <v>0.303188650854576</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1609167873403727</v>
       </c>
       <c r="M3">
-        <v>0.749885363547719</v>
+        <v>0.07598688219564309</v>
       </c>
       <c r="N3">
-        <v>0.3860404836005245</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7525359552275575</v>
       </c>
       <c r="P3">
-        <v>0.8063343614850922</v>
+        <v>0.3893524392987189</v>
       </c>
       <c r="Q3">
-        <v>1.107844011863577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7933800464712668</v>
+      </c>
+      <c r="S3">
+        <v>1.051768292779698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8447086911779991</v>
+        <v>0.8184316069297495</v>
       </c>
       <c r="C4">
-        <v>0.1690370060575148</v>
+        <v>0.1531261972679054</v>
       </c>
       <c r="D4">
-        <v>0.06698386945309664</v>
+        <v>0.06835748171052813</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3617167741873786</v>
+        <v>0.3464608779613343</v>
       </c>
       <c r="G4">
-        <v>0.273650014751837</v>
+        <v>0.2418860029830867</v>
       </c>
       <c r="H4">
-        <v>0.001902632342264066</v>
+        <v>0.001490732737657985</v>
       </c>
       <c r="I4">
-        <v>0.001527412543395723</v>
+        <v>0.001166941226419027</v>
       </c>
       <c r="J4">
-        <v>0.2702116331977393</v>
+        <v>0.2919380434103047</v>
       </c>
       <c r="K4">
-        <v>0.3255766108785672</v>
+        <v>0.3030928244598954</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.163466551792272</v>
       </c>
       <c r="M4">
-        <v>0.6845479502471079</v>
+        <v>0.07476628020329201</v>
       </c>
       <c r="N4">
-        <v>0.3551873471893714</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6870675098734722</v>
       </c>
       <c r="P4">
-        <v>0.8204793478630492</v>
+        <v>0.3587374598702411</v>
       </c>
       <c r="Q4">
-        <v>1.093686589365049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8056852561523051</v>
+      </c>
+      <c r="S4">
+        <v>1.041601605269236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8093581074790848</v>
+        <v>0.7851683936206371</v>
       </c>
       <c r="C5">
-        <v>0.1677801500963163</v>
+        <v>0.1515139796877456</v>
       </c>
       <c r="D5">
-        <v>0.06474249035306201</v>
+        <v>0.06594999320603989</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3569695529955439</v>
+        <v>0.3423026281543216</v>
       </c>
       <c r="G5">
-        <v>0.2709905420551664</v>
+        <v>0.2399369701740994</v>
       </c>
       <c r="H5">
-        <v>0.002161004604265937</v>
+        <v>0.001706475828845644</v>
       </c>
       <c r="I5">
-        <v>0.001794012088103258</v>
+        <v>0.00139220018610775</v>
       </c>
       <c r="J5">
-        <v>0.2698966395899589</v>
+        <v>0.2913361191515094</v>
       </c>
       <c r="K5">
-        <v>0.3248314216339878</v>
+        <v>0.3028164984864539</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1643904041883957</v>
       </c>
       <c r="M5">
-        <v>0.6579144452858259</v>
+        <v>0.0743314349128017</v>
       </c>
       <c r="N5">
-        <v>0.342589709662505</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6603793462705454</v>
       </c>
       <c r="P5">
-        <v>0.8264110073993489</v>
+        <v>0.3462365420153759</v>
       </c>
       <c r="Q5">
-        <v>1.087323635849572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8108962821254266</v>
+      </c>
+      <c r="S5">
+        <v>1.036829697044936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8026317164507759</v>
+        <v>0.7787937899022097</v>
       </c>
       <c r="C6">
-        <v>0.1676393065846504</v>
+        <v>0.1513497020392194</v>
       </c>
       <c r="D6">
-        <v>0.0644284367746053</v>
+        <v>0.06561009925855643</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3558571472557688</v>
+        <v>0.3412919799300838</v>
       </c>
       <c r="G6">
-        <v>0.2702375351985893</v>
+        <v>0.239314466224009</v>
       </c>
       <c r="H6">
-        <v>0.002207945198290706</v>
+        <v>0.001745846931129447</v>
       </c>
       <c r="I6">
-        <v>0.001934921919609423</v>
+        <v>0.001542711016520038</v>
       </c>
       <c r="J6">
-        <v>0.2696834807257673</v>
+        <v>0.2910691172289432</v>
       </c>
       <c r="K6">
-        <v>0.3243760551145947</v>
+        <v>0.3024536480523281</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1643808634999502</v>
       </c>
       <c r="M6">
-        <v>0.6535308506583846</v>
+        <v>0.07418999994708386</v>
       </c>
       <c r="N6">
-        <v>0.3404818250554484</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6559875423145058</v>
       </c>
       <c r="P6">
-        <v>0.827447553529618</v>
+        <v>0.3441444898748642</v>
       </c>
       <c r="Q6">
-        <v>1.085269693740244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.811839672669521</v>
+      </c>
+      <c r="S6">
+        <v>1.035060948041192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8419031145629674</v>
+        <v>0.8153006788334949</v>
       </c>
       <c r="C7">
-        <v>0.1692092619876462</v>
+        <v>0.1532985574119898</v>
       </c>
       <c r="D7">
-        <v>0.06711316564432224</v>
+        <v>0.06859723318750355</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3607537023643204</v>
+        <v>0.3449556497257689</v>
       </c>
       <c r="G7">
-        <v>0.2727532905576311</v>
+        <v>0.2432650956036539</v>
       </c>
       <c r="H7">
-        <v>0.001911134931202652</v>
+        <v>0.00149967988136368</v>
       </c>
       <c r="I7">
-        <v>0.001774001263846969</v>
+        <v>0.001457909173093519</v>
       </c>
       <c r="J7">
-        <v>0.2697608133071725</v>
+        <v>0.288253804350056</v>
       </c>
       <c r="K7">
-        <v>0.3246552313352815</v>
+        <v>0.3019229037833746</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1628935892037191</v>
       </c>
       <c r="M7">
-        <v>0.6843024302985015</v>
+        <v>0.07446270719863257</v>
       </c>
       <c r="N7">
-        <v>0.3549762597789368</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6861876705100229</v>
       </c>
       <c r="P7">
-        <v>0.8206887623953421</v>
+        <v>0.3585118467870103</v>
       </c>
       <c r="Q7">
-        <v>1.090839947701767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.806063600407974</v>
+      </c>
+      <c r="S7">
+        <v>1.03714173654339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.016487000584362</v>
+        <v>0.9780835146305549</v>
       </c>
       <c r="C8">
-        <v>0.1758475884463451</v>
+        <v>0.1618175657784136</v>
       </c>
       <c r="D8">
-        <v>0.078799310862955</v>
+        <v>0.08141773105508321</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3839586247392077</v>
+        <v>0.3637308691410936</v>
       </c>
       <c r="G8">
-        <v>0.2852421791822692</v>
+        <v>0.2574553755374112</v>
       </c>
       <c r="H8">
-        <v>0.0008880964885702447</v>
+        <v>0.0006594088204728843</v>
       </c>
       <c r="I8">
-        <v>0.001125865795428282</v>
+        <v>0.001057428938796789</v>
       </c>
       <c r="J8">
-        <v>0.2709551098429372</v>
+        <v>0.283405168089331</v>
       </c>
       <c r="K8">
-        <v>0.3271032394241651</v>
+        <v>0.3012628896681093</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1572979880975005</v>
       </c>
       <c r="M8">
-        <v>0.8196223003986631</v>
+        <v>0.07708497260657587</v>
       </c>
       <c r="N8">
-        <v>0.4188749164935075</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8202736663362487</v>
       </c>
       <c r="P8">
-        <v>0.7919231962285593</v>
+        <v>0.4218827208112828</v>
       </c>
       <c r="Q8">
-        <v>1.120133622310917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7814896644443436</v>
+      </c>
+      <c r="S8">
+        <v>1.054090135008934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.35977495067803</v>
+        <v>1.298192594696133</v>
       </c>
       <c r="C9">
-        <v>0.1881884554796542</v>
+        <v>0.1783934983679387</v>
       </c>
       <c r="D9">
-        <v>0.1014330630947242</v>
+        <v>0.1059635483883525</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4339803421794031</v>
+        <v>0.4064706701839214</v>
       </c>
       <c r="G9">
-        <v>0.3135039792640626</v>
+        <v>0.2807867914543394</v>
       </c>
       <c r="H9">
-        <v>1.990865238088446E-05</v>
+        <v>3.488639836568552E-06</v>
       </c>
       <c r="I9">
-        <v>0.0006797207235305081</v>
+        <v>0.0008635363192013301</v>
       </c>
       <c r="J9">
-        <v>0.2757042196700539</v>
+        <v>0.2865917991477218</v>
       </c>
       <c r="K9">
-        <v>0.3348408269521386</v>
+        <v>0.3033896857526912</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1481805163093846</v>
       </c>
       <c r="M9">
-        <v>1.083701254123014</v>
+        <v>0.0869379211954957</v>
       </c>
       <c r="N9">
-        <v>0.5440334773513058</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.084123964737245</v>
       </c>
       <c r="P9">
-        <v>0.739635504468005</v>
+        <v>0.5460344533638732</v>
       </c>
       <c r="Q9">
-        <v>1.190561616268553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7371319077952769</v>
+      </c>
+      <c r="S9">
+        <v>1.10450355175783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.597149843338116</v>
+        <v>1.516691110053472</v>
       </c>
       <c r="C10">
-        <v>0.1985205297619217</v>
+        <v>0.1920888118656663</v>
       </c>
       <c r="D10">
-        <v>0.1190048044645096</v>
+        <v>0.1256259144558811</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4679948490035173</v>
+        <v>0.4319983323075078</v>
       </c>
       <c r="G10">
-        <v>0.3313010778456729</v>
+        <v>0.309034541643463</v>
       </c>
       <c r="H10">
-        <v>0.0003205174361626817</v>
+        <v>0.0003563752382937935</v>
       </c>
       <c r="I10">
-        <v>0.001279216188518006</v>
+        <v>0.001555094295341064</v>
       </c>
       <c r="J10">
-        <v>0.2779685709863031</v>
+        <v>0.270445012501348</v>
       </c>
       <c r="K10">
-        <v>0.3367244086712056</v>
+        <v>0.2999412666053303</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1398995513040582</v>
       </c>
       <c r="M10">
-        <v>1.277880476343768</v>
+        <v>0.09436256269962939</v>
       </c>
       <c r="N10">
-        <v>0.6058441297483625</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.274137079929147</v>
       </c>
       <c r="P10">
-        <v>0.7056778267601302</v>
+        <v>0.606996845656127</v>
       </c>
       <c r="Q10">
-        <v>1.233416377654919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.710684945817821</v>
+      </c>
+      <c r="S10">
+        <v>1.123589530794035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.598650762224992</v>
+        <v>1.516832667868698</v>
       </c>
       <c r="C11">
-        <v>0.2193920042401842</v>
+        <v>0.2171038563210246</v>
       </c>
       <c r="D11">
-        <v>0.1347045224673309</v>
+        <v>0.1431650493242955</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.445236854097395</v>
+        <v>0.4046866128168602</v>
       </c>
       <c r="G11">
-        <v>0.3034247150426665</v>
+        <v>0.3126300442642531</v>
       </c>
       <c r="H11">
-        <v>0.01882122092323257</v>
+        <v>0.01883971992384303</v>
       </c>
       <c r="I11">
-        <v>0.001954761744427103</v>
+        <v>0.002324299484735448</v>
       </c>
       <c r="J11">
-        <v>0.2607836488821818</v>
+        <v>0.2264541129487938</v>
       </c>
       <c r="K11">
-        <v>0.3011931114405186</v>
+        <v>0.2659608058632159</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1252830301814125</v>
       </c>
       <c r="M11">
-        <v>1.37110516329804</v>
+        <v>0.08449864674059882</v>
       </c>
       <c r="N11">
-        <v>0.4002306262330961</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.358257564606276</v>
       </c>
       <c r="P11">
-        <v>0.7078127037989397</v>
+        <v>0.4009499563567118</v>
       </c>
       <c r="Q11">
-        <v>1.13848344843592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7228631587468826</v>
+      </c>
+      <c r="S11">
+        <v>1.018479780235609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.553118502757144</v>
+        <v>1.47558946229978</v>
       </c>
       <c r="C12">
-        <v>0.2402040387455457</v>
+        <v>0.2397933446896161</v>
       </c>
       <c r="D12">
-        <v>0.1443822247137234</v>
+        <v>0.1535390040759808</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4202200923910766</v>
+        <v>0.3797853188274019</v>
       </c>
       <c r="G12">
-        <v>0.2780499932548537</v>
+        <v>0.3019045084041565</v>
       </c>
       <c r="H12">
-        <v>0.05744193649912432</v>
+        <v>0.05745202032810681</v>
       </c>
       <c r="I12">
-        <v>0.001962263293204813</v>
+        <v>0.002326097850002817</v>
       </c>
       <c r="J12">
-        <v>0.2466280854058027</v>
+        <v>0.2063118261628674</v>
       </c>
       <c r="K12">
-        <v>0.2739538330181404</v>
+        <v>0.2421252221539767</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.116475470726062</v>
       </c>
       <c r="M12">
-        <v>1.408872992347654</v>
+        <v>0.07579304388863051</v>
       </c>
       <c r="N12">
-        <v>0.2514087667954072</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.39147752201697</v>
       </c>
       <c r="P12">
-        <v>0.7209247563464984</v>
+        <v>0.2519943752312628</v>
       </c>
       <c r="Q12">
-        <v>1.055099485413521</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7420808247542681</v>
+      </c>
+      <c r="S12">
+        <v>0.9380560939773375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.465424687328181</v>
+        <v>1.397674564785518</v>
       </c>
       <c r="C13">
-        <v>0.2620910575557929</v>
+        <v>0.2628213720180099</v>
       </c>
       <c r="D13">
-        <v>0.1501390822096624</v>
+        <v>0.1587358215387553</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3905112568707949</v>
+        <v>0.3548975626672188</v>
       </c>
       <c r="G13">
-        <v>0.2517130266940484</v>
+        <v>0.2726324363628336</v>
       </c>
       <c r="H13">
-        <v>0.1131458376347325</v>
+        <v>0.1131478437374369</v>
       </c>
       <c r="I13">
-        <v>0.001804624938315236</v>
+        <v>0.002165897853320331</v>
       </c>
       <c r="J13">
-        <v>0.2332234730781906</v>
+        <v>0.2015226632118257</v>
       </c>
       <c r="K13">
-        <v>0.2500315326838383</v>
+        <v>0.2234377218717789</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1105684247963339</v>
       </c>
       <c r="M13">
-        <v>1.40598104451476</v>
+        <v>0.06741356320767444</v>
       </c>
       <c r="N13">
-        <v>0.1378470229274669</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.389212740064153</v>
       </c>
       <c r="P13">
-        <v>0.7426994110864626</v>
+        <v>0.1384728138144311</v>
       </c>
       <c r="Q13">
-        <v>0.971174832366259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7655983523742265</v>
+      </c>
+      <c r="S13">
+        <v>0.8699632532508872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.38480189629928</v>
+        <v>1.326162020318861</v>
       </c>
       <c r="C14">
-        <v>0.2786216987354919</v>
+        <v>0.2798931124040109</v>
       </c>
       <c r="D14">
-        <v>0.1524463025559015</v>
+        <v>0.1600633669717553</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.367530607267291</v>
+        <v>0.3371462407348815</v>
       </c>
       <c r="G14">
-        <v>0.2328545093088508</v>
+        <v>0.2450409241811258</v>
       </c>
       <c r="H14">
-        <v>0.1624716822179266</v>
+        <v>0.1624647689253038</v>
       </c>
       <c r="I14">
-        <v>0.001713474028085749</v>
+        <v>0.002085886731621578</v>
       </c>
       <c r="J14">
-        <v>0.2241558899502678</v>
+        <v>0.2036087444174832</v>
       </c>
       <c r="K14">
-        <v>0.2349256091987506</v>
+        <v>0.2124954140003457</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1074901331428375</v>
       </c>
       <c r="M14">
-        <v>1.385563137807196</v>
+        <v>0.06181643204626752</v>
       </c>
       <c r="N14">
-        <v>0.07983044104264536</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.371519356847642</v>
       </c>
       <c r="P14">
-        <v>0.7622736495555458</v>
+        <v>0.08053535696975445</v>
       </c>
       <c r="Q14">
-        <v>0.9121588895486354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.7839492699220187</v>
+      </c>
+      <c r="S14">
+        <v>0.8267694833038632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.355526161978645</v>
+        <v>1.300139329430777</v>
       </c>
       <c r="C15">
-        <v>0.282402120114611</v>
+        <v>0.2838362345646033</v>
       </c>
       <c r="D15">
-        <v>0.1521809478890646</v>
+        <v>0.1593123331817878</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3606611059254803</v>
+        <v>0.3323631561351377</v>
       </c>
       <c r="G15">
-        <v>0.2277394132120705</v>
+        <v>0.2351353306464361</v>
       </c>
       <c r="H15">
-        <v>0.1749740745371327</v>
+        <v>0.1749623863373984</v>
       </c>
       <c r="I15">
-        <v>0.001772955869765447</v>
+        <v>0.002169140891863819</v>
       </c>
       <c r="J15">
-        <v>0.2219581475498558</v>
+        <v>0.2064854018728361</v>
       </c>
       <c r="K15">
-        <v>0.2315152986979214</v>
+        <v>0.2103718534269969</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1070571252131725</v>
       </c>
       <c r="M15">
-        <v>1.371914318687061</v>
+        <v>0.06041190639269978</v>
       </c>
       <c r="N15">
-        <v>0.06842855479561294</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.359512712036747</v>
       </c>
       <c r="P15">
-        <v>0.7684643954886639</v>
+        <v>0.06918039853159641</v>
       </c>
       <c r="Q15">
-        <v>0.8966843558672082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.7888812523004844</v>
+      </c>
+      <c r="S15">
+        <v>0.8172620642692863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.272233985641577</v>
+        <v>1.225925949040459</v>
       </c>
       <c r="C16">
-        <v>0.2728222628901165</v>
+        <v>0.2742568660074909</v>
       </c>
       <c r="D16">
-        <v>0.1432998632382407</v>
+        <v>0.1483876841607952</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3515441677414302</v>
+        <v>0.3301359861630004</v>
       </c>
       <c r="G16">
-        <v>0.2249782329803196</v>
+        <v>0.2107755119115566</v>
       </c>
       <c r="H16">
-        <v>0.1621994083280924</v>
+        <v>0.1621560324048232</v>
       </c>
       <c r="I16">
-        <v>0.001668866417126935</v>
+        <v>0.002070411263673577</v>
       </c>
       <c r="J16">
-        <v>0.2233448305646348</v>
+        <v>0.2298098498109553</v>
       </c>
       <c r="K16">
-        <v>0.2351009843430614</v>
+        <v>0.2164022135920369</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1105490022407327</v>
       </c>
       <c r="M16">
-        <v>1.288633326970853</v>
+        <v>0.06030509138283158</v>
       </c>
       <c r="N16">
-        <v>0.06816718002477984</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.284229494805089</v>
       </c>
       <c r="P16">
-        <v>0.7763081640288618</v>
+        <v>0.06921117248155895</v>
       </c>
       <c r="Q16">
-        <v>0.8935741764699685</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.7888818829448851</v>
+      </c>
+      <c r="S16">
+        <v>0.8322439341770291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.250758228094412</v>
+        <v>1.206120181262719</v>
       </c>
       <c r="C17">
-        <v>0.2563640822725972</v>
+        <v>0.2570896156417461</v>
       </c>
       <c r="D17">
-        <v>0.1352923632537681</v>
+        <v>0.1396012779513143</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3567600962915733</v>
+        <v>0.3372760662199425</v>
       </c>
       <c r="G17">
-        <v>0.2328136687920477</v>
+        <v>0.2090801062247962</v>
       </c>
       <c r="H17">
-        <v>0.1243967571026303</v>
+        <v>0.1243321992007935</v>
       </c>
       <c r="I17">
-        <v>0.00166715493848546</v>
+        <v>0.002066344715678348</v>
       </c>
       <c r="J17">
-        <v>0.2292309759023254</v>
+        <v>0.2456806932511881</v>
       </c>
       <c r="K17">
-        <v>0.245700461472758</v>
+        <v>0.2267100156252457</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1151569440471469</v>
       </c>
       <c r="M17">
-        <v>1.235763967319485</v>
+        <v>0.06290155565460331</v>
       </c>
       <c r="N17">
-        <v>0.09486997564700772</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.234869723495763</v>
       </c>
       <c r="P17">
-        <v>0.7720784722257648</v>
+        <v>0.09611985914843046</v>
       </c>
       <c r="Q17">
-        <v>0.9224134991452786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7805797615424481</v>
+      </c>
+      <c r="S17">
+        <v>0.8653663063235939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.282029566848081</v>
+        <v>1.233727611436308</v>
       </c>
       <c r="C18">
-        <v>0.2341481396184975</v>
+        <v>0.2334655792073193</v>
       </c>
       <c r="D18">
-        <v>0.1271089826772425</v>
+        <v>0.1313000244327895</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3756342795039629</v>
+        <v>0.3551581575014851</v>
       </c>
       <c r="G18">
-        <v>0.2516188334404461</v>
+        <v>0.2220678230833002</v>
       </c>
       <c r="H18">
-        <v>0.07153706343995481</v>
+        <v>0.07147273102214768</v>
       </c>
       <c r="I18">
-        <v>0.00143933589209766</v>
+        <v>0.001789760292278508</v>
       </c>
       <c r="J18">
-        <v>0.2400812723443906</v>
+        <v>0.2601602880308391</v>
       </c>
       <c r="K18">
-        <v>0.2650340638083222</v>
+        <v>0.2436511814665714</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1219904556602742</v>
       </c>
       <c r="M18">
-        <v>1.202920581998001</v>
+        <v>0.06859839065971407</v>
       </c>
       <c r="N18">
-        <v>0.1666178760526194</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.20367014702299</v>
       </c>
       <c r="P18">
-        <v>0.7584477372620171</v>
+        <v>0.1680418159116286</v>
       </c>
       <c r="Q18">
-        <v>0.984950303397099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.7643943178943005</v>
+      </c>
+      <c r="S18">
+        <v>0.9237815118591044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.34994125907528</v>
+        <v>1.294195075839951</v>
       </c>
       <c r="C19">
-        <v>0.2139777557732359</v>
+        <v>0.2112632878666716</v>
       </c>
       <c r="D19">
-        <v>0.1199129611296428</v>
+        <v>0.1243745017085587</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.402976966338457</v>
+        <v>0.3796287543284578</v>
       </c>
       <c r="G19">
-        <v>0.2772751260467672</v>
+        <v>0.2434151389617085</v>
       </c>
       <c r="H19">
-        <v>0.02624586140531449</v>
+        <v>0.02620718025728053</v>
       </c>
       <c r="I19">
-        <v>0.001576313033043064</v>
+        <v>0.001959207465728419</v>
       </c>
       <c r="J19">
-        <v>0.2537048777658768</v>
+        <v>0.2736390366706374</v>
       </c>
       <c r="K19">
-        <v>0.290287045283943</v>
+        <v>0.2649679944060743</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1301754005423721</v>
       </c>
       <c r="M19">
-        <v>1.188843851759941</v>
+        <v>0.07647443591656966</v>
       </c>
       <c r="N19">
-        <v>0.2979392855096705</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.190266813259768</v>
       </c>
       <c r="P19">
-        <v>0.742207625461905</v>
+        <v>0.2994900316741251</v>
       </c>
       <c r="Q19">
-        <v>1.067861897718288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7462617936539502</v>
+      </c>
+      <c r="S19">
+        <v>0.9970222849614458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.527024443321096</v>
+        <v>1.453175433239466</v>
       </c>
       <c r="C20">
-        <v>0.1965969333151634</v>
+        <v>0.1900835663132909</v>
       </c>
       <c r="D20">
-        <v>0.114935947228247</v>
+        <v>0.12060984516215</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4559494418614918</v>
+        <v>0.4243473489302119</v>
       </c>
       <c r="G20">
-        <v>0.3236893663904112</v>
+        <v>0.2904285521588719</v>
       </c>
       <c r="H20">
-        <v>0.0001698530703553303</v>
+        <v>0.0001993113868286045</v>
       </c>
       <c r="I20">
-        <v>0.001823373999767952</v>
+        <v>0.002246157507409308</v>
       </c>
       <c r="J20">
-        <v>0.2758526509413741</v>
+        <v>0.2836648266157908</v>
       </c>
       <c r="K20">
-        <v>0.3332218765589126</v>
+        <v>0.299141283902685</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1414014197851792</v>
       </c>
       <c r="M20">
-        <v>1.227293112432392</v>
+        <v>0.0916337907431064</v>
       </c>
       <c r="N20">
-        <v>0.5882350052931855</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.227036248844229</v>
       </c>
       <c r="P20">
-        <v>0.7152169259477681</v>
+        <v>0.5896593625693356</v>
       </c>
       <c r="Q20">
-        <v>1.212749171457205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7179773409732313</v>
+      </c>
+      <c r="S20">
+        <v>1.115745081582418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.728275640313427</v>
+        <v>1.630198191065404</v>
       </c>
       <c r="C21">
-        <v>0.202380757732378</v>
+        <v>0.1957977810748943</v>
       </c>
       <c r="D21">
-        <v>0.1270715122280563</v>
+        <v>0.1366433060598666</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4900531668487105</v>
+        <v>0.4402577220642314</v>
       </c>
       <c r="G21">
-        <v>0.3448316047275028</v>
+        <v>0.3657372494198938</v>
       </c>
       <c r="H21">
-        <v>0.000453915446400277</v>
+        <v>0.0004813085984660681</v>
       </c>
       <c r="I21">
-        <v>0.002430389460928772</v>
+        <v>0.002826494003343782</v>
       </c>
       <c r="J21">
-        <v>0.281466954385678</v>
+        <v>0.2273995572133245</v>
       </c>
       <c r="K21">
-        <v>0.3421288858336311</v>
+        <v>0.2973042081036823</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1356276789773396</v>
       </c>
       <c r="M21">
-        <v>1.37533049442294</v>
+        <v>0.09813066561678596</v>
       </c>
       <c r="N21">
-        <v>0.6823587988766207</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.359283702767897</v>
       </c>
       <c r="P21">
-        <v>0.6878618378569179</v>
+        <v>0.6828755520539289</v>
       </c>
       <c r="Q21">
-        <v>1.269615705801272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.6993544112118961</v>
+      </c>
+      <c r="S21">
+        <v>1.119397277418273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.856660899142923</v>
+        <v>1.742372864969752</v>
       </c>
       <c r="C22">
-        <v>0.2065318304030264</v>
+        <v>0.1999629034081067</v>
       </c>
       <c r="D22">
-        <v>0.1352239070698431</v>
+        <v>0.1475672462789248</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5117563674958348</v>
+        <v>0.4492085379860242</v>
       </c>
       <c r="G22">
-        <v>0.3580174944474095</v>
+        <v>0.4227365501092777</v>
       </c>
       <c r="H22">
-        <v>0.0008798254178974396</v>
+        <v>0.0008732963901738611</v>
       </c>
       <c r="I22">
-        <v>0.002696238095695414</v>
+        <v>0.002969660037583921</v>
       </c>
       <c r="J22">
-        <v>0.2848642654318638</v>
+        <v>0.1969675337637007</v>
       </c>
       <c r="K22">
-        <v>0.3471380543716478</v>
+        <v>0.2950091005202253</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1316234375005578</v>
       </c>
       <c r="M22">
-        <v>1.472206089465686</v>
+        <v>0.1022108442059597</v>
       </c>
       <c r="N22">
-        <v>0.7286254801793177</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.44455649933056</v>
       </c>
       <c r="P22">
-        <v>0.6709473067627769</v>
+        <v>0.7285338789918683</v>
       </c>
       <c r="Q22">
-        <v>1.304865753673596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.6888524464842121</v>
+      </c>
+      <c r="S22">
+        <v>1.117507865702109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.791007037649592</v>
+        <v>1.686380890289115</v>
       </c>
       <c r="C23">
-        <v>0.2040429369178867</v>
+        <v>0.1975546342808627</v>
       </c>
       <c r="D23">
-        <v>0.1306747069319272</v>
+        <v>0.1412064899767103</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5011850951195527</v>
+        <v>0.4469010327535443</v>
       </c>
       <c r="G23">
-        <v>0.3519513449790281</v>
+        <v>0.3858667674306702</v>
       </c>
       <c r="H23">
-        <v>0.0006387670748855268</v>
+        <v>0.0006549788435945558</v>
       </c>
       <c r="I23">
-        <v>0.002247866459799575</v>
+        <v>0.002530746207184187</v>
       </c>
       <c r="J23">
-        <v>0.2835426810239312</v>
+        <v>0.2175229861337513</v>
       </c>
       <c r="K23">
-        <v>0.3454955102714727</v>
+        <v>0.2979059977775727</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1342981125497236</v>
       </c>
       <c r="M23">
-        <v>1.420366544342926</v>
+        <v>0.1007214299225687</v>
       </c>
       <c r="N23">
-        <v>0.703969894591765</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.400692506526667</v>
       </c>
       <c r="P23">
-        <v>0.6796013229029114</v>
+        <v>0.704232196962991</v>
       </c>
       <c r="Q23">
-        <v>1.289141726544727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.6933233392082911</v>
+      </c>
+      <c r="S23">
+        <v>1.125808854698462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.537339181714344</v>
+        <v>1.462717597593212</v>
       </c>
       <c r="C24">
-        <v>0.1950500307474599</v>
+        <v>0.1878742888786604</v>
       </c>
       <c r="D24">
-        <v>0.1137908716162741</v>
+        <v>0.1194467820077278</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4604378021515032</v>
+        <v>0.4285504856569347</v>
       </c>
       <c r="G24">
-        <v>0.3281406468773724</v>
+        <v>0.2940365918050674</v>
       </c>
       <c r="H24">
-        <v>6.661318607004141E-05</v>
+        <v>9.945375261311007E-05</v>
       </c>
       <c r="I24">
-        <v>0.001351749435804628</v>
+        <v>0.001675048434148785</v>
       </c>
       <c r="J24">
-        <v>0.2781981556912783</v>
+        <v>0.2863179174301749</v>
       </c>
       <c r="K24">
-        <v>0.3380378056152828</v>
+        <v>0.3033695689768976</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.143034458040411</v>
       </c>
       <c r="M24">
-        <v>1.224253473759887</v>
+        <v>0.09318159733520304</v>
       </c>
       <c r="N24">
-        <v>0.6106371352466624</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.224151615417213</v>
       </c>
       <c r="P24">
-        <v>0.7140953762498157</v>
+        <v>0.6120733269024186</v>
       </c>
       <c r="Q24">
-        <v>1.227095093197562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7162110471386995</v>
+      </c>
+      <c r="S24">
+        <v>1.128970050101472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.26295051095741</v>
+        <v>1.208409221486875</v>
       </c>
       <c r="C25">
-        <v>0.1852614058675428</v>
+        <v>0.1746477820633103</v>
       </c>
       <c r="D25">
-        <v>0.09560105857610068</v>
+        <v>0.09945577465992272</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4184889779438308</v>
+        <v>0.3938689992481912</v>
       </c>
       <c r="G25">
-        <v>0.304050179949904</v>
+        <v>0.269477598753916</v>
       </c>
       <c r="H25">
-        <v>0.000125305208029669</v>
+        <v>6.673565407822046E-05</v>
       </c>
       <c r="I25">
-        <v>0.001080379206205961</v>
+        <v>0.001297963451878381</v>
       </c>
       <c r="J25">
-        <v>0.2734429438973578</v>
+        <v>0.2892788530397965</v>
       </c>
       <c r="K25">
-        <v>0.3309727926398836</v>
+        <v>0.301631136002765</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1501379408806116</v>
       </c>
       <c r="M25">
-        <v>1.012558612015766</v>
+        <v>0.08346231436990514</v>
       </c>
       <c r="N25">
-        <v>0.5101127188431462</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.013991843683442</v>
       </c>
       <c r="P25">
-        <v>0.7536675297560613</v>
+        <v>0.5124111284563071</v>
       </c>
       <c r="Q25">
-        <v>1.165635585116647</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7489734087979265</v>
+      </c>
+      <c r="S25">
+        <v>1.087815477738332</v>
       </c>
     </row>
   </sheetData>
